--- a/EXCEL_TRABAJADO/2023-1.xlsx
+++ b/EXCEL_TRABAJADO/2023-1.xlsx
@@ -1,44 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4BB051-29D3-43F7-9CA0-1864DE6C24B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E66C8C-9F01-431E-8E4A-FD625EF07FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="885" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
-    <sheet name="items" sheetId="3" r:id="rId3"/>
+    <sheet name="temp" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
+    <sheet name="items" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="289">
   <si>
     <t>N°</t>
   </si>
@@ -130,9 +115,6 @@
     <t>FLAG</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -226,9 +208,6 @@
     <t>F1.1 - 676 - INTRODUCCIÓN A LA AGRONOMÍA - 3172</t>
   </si>
   <si>
-    <t>Sin asignar</t>
-  </si>
-  <si>
     <t>F1.1 - 676 - INTRODUCCIÓN A LA AGRONOMÍA - 3178</t>
   </si>
   <si>
@@ -496,126 +475,24 @@
     <t>https://aula.undc.edu.pe/course/view.php?id=336</t>
   </si>
   <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=363</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=370</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=367</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=374</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=368</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=375</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=364</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=371</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=365</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=372</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=366</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=373</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=369</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=376</t>
-  </si>
-  <si>
     <t>https://aula.undc.edu.pe/course/view.php?id=338</t>
   </si>
   <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=345</t>
-  </si>
-  <si>
     <t>https://aula.undc.edu.pe/course/view.php?id=339</t>
   </si>
   <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=346</t>
-  </si>
-  <si>
     <t>https://aula.undc.edu.pe/course/view.php?id=340</t>
   </si>
   <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=347</t>
-  </si>
-  <si>
     <t>https://aula.undc.edu.pe/course/view.php?id=341</t>
   </si>
   <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=348</t>
-  </si>
-  <si>
     <t>https://aula.undc.edu.pe/course/view.php?id=342</t>
   </si>
   <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=349</t>
-  </si>
-  <si>
     <t>https://aula.undc.edu.pe/course/view.php?id=337</t>
   </si>
   <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=344</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=343</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=350</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=352</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=353</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=354</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=355</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=356</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=351</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=357</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=358</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=359</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=360</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=361</t>
-  </si>
-  <si>
-    <t>https://aula.undc.edu.pe/course/view.php?id=362</t>
-  </si>
-  <si>
     <t>IMAGEN UNIRSE GRUPO WHATSAPP</t>
   </si>
   <si>
@@ -824,6 +701,195 @@
   </si>
   <si>
     <t>https://chat.whatsapp.com/CQeHG5APPvMFXnWQCprJo1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>EG12 - 550 - MATEMÁTICA BÁSICA - 3234</t>
+  </si>
+  <si>
+    <t>ÑAÑEZ JAVIER NANCY</t>
+  </si>
+  <si>
+    <t>COAQUIRA INCACARI ROBERTO</t>
+  </si>
+  <si>
+    <t>ÑIQUE ALVAREZ MANUEL ALFREDO</t>
+  </si>
+  <si>
+    <t>VEGA CANALES FELIPE</t>
+  </si>
+  <si>
+    <t>ORE CAYLLAHUA CARLOS FERNANDO</t>
+  </si>
+  <si>
+    <t>ORTEGA GOMERO SANTIAGO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>SUAREZ YAURI ELADIA</t>
+  </si>
+  <si>
+    <t>AYBAR PEVE LEANDRO JOEL</t>
+  </si>
+  <si>
+    <t>TOLEDO GUERRA JUAN CARLOS ALFREDO</t>
+  </si>
+  <si>
+    <t>BERROCAL CHUMBIAUCA JULIO ANTONIO</t>
+  </si>
+  <si>
+    <t>REYNOSO PALPA JENNY ROCIO</t>
+  </si>
+  <si>
+    <t>CABRERA VIGIL CARLOS EUSEBIO</t>
+  </si>
+  <si>
+    <t>SESSAREGO DÁVILA EMMANUEL ALEXANDER</t>
+  </si>
+  <si>
+    <t>ALVAREZ BERNAOLA LUIS ARMANDO</t>
+  </si>
+  <si>
+    <t>ALIAGA BARRERA ISAAC NOLBERTO</t>
+  </si>
+  <si>
+    <t>TAIPE CANCHO MARIO HUMBERTO</t>
+  </si>
+  <si>
+    <t>GARCIA RUIZ MARIA LUISA</t>
+  </si>
+  <si>
+    <t>MONTERO RAVELO ALEXEI ARMANDO</t>
+  </si>
+  <si>
+    <t>MARCA FLORES OMAR</t>
+  </si>
+  <si>
+    <t>RIVERA SALINAS ELIZABETH</t>
+  </si>
+  <si>
+    <t>VALDERRAMA ROMERO ANTONIO SALOMON</t>
+  </si>
+  <si>
+    <t>LEON TTACCA BETSABE</t>
+  </si>
+  <si>
+    <t>DOCENTE</t>
+  </si>
+  <si>
+    <t>BELLODAS CUBAS JOSE DOLORES</t>
+  </si>
+  <si>
+    <t>ORELLANA UZHO CARLOS MANUEL</t>
+  </si>
+  <si>
+    <t>PARIONA VILLAVERDE CONSTANTINO</t>
+  </si>
+  <si>
+    <t>ORELLANA OZHO CARLOS MANUEL</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=281</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=287</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=279</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=285</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=280</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=286</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=284</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=290</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=282</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=288</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=283</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=289</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=293</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=299</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=294</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=300</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=291</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=297</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=292</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=298</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=295</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=301</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=296</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=302</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=304</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=311</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=305</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=312</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=306</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=307</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=308</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=303</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=310</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=309</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1039,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1006,6 +1072,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1022,350 +1091,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet"/>
-      <sheetName val="items"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>ASIGNATURA</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>F1.1 - 676 - INTRODUCCIÓN A LA AGRONOMÍA - 3172</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>F1.1 - 676 - INTRODUCCIÓN A LA AGRONOMÍA - 3178</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>CB.1 - 677 - MATEMÁTICA BÁSICA - 3170</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5" t="str">
-            <v>CB.1 - 677 - MATEMÁTICA BÁSICA - 3176</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>CB.6 - 678 - BIOLOGÍA GENERAL - 3171</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>CB.6 - 678 - BIOLOGÍA GENERAL - 3177</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>FG.7 - 679 - COMUNICACIÓN - 3175</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>FG.7 - 679 - COMUNICACIÓN - 3181</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>FG.3 - 680 - METODOLOGÍA DEL TRABAJO UNIVERSITARIO - 3173</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11" t="str">
-            <v>FG.3 - 680 - METODOLOGÍA DEL TRABAJO UNIVERSITARIO - 3179</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12" t="str">
-            <v>FG.5 - 681 - CIUDADANÍA - 3174</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13" t="str">
-            <v>FG.5 - 681 - CIUDADANÍA - 3180</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14" t="str">
-            <v>F1.2 - 688 - AGROECOLOGÍA - 3184</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15" t="str">
-            <v>F1.2 - 688 - AGROECOLOGÍA - 3190</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16" t="str">
-            <v>F1.4 - 689 - BOTÁNICA SISTÉMICA - 3185</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17" t="str">
-            <v>F1.4 - 689 - BOTÁNICA SISTÉMICA - 3191</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18" t="str">
-            <v>CB.3 - 690 - ESTADÍSTICA - 3182</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19" t="str">
-            <v>CB.3 - 690 - ESTADÍSTICA - 3188</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20" t="str">
-            <v>CB.9 - 691 - QUÍMICA ORGÁNICA - 3183</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21" t="str">
-            <v>CB.9 - 691 - QUÍMICA ORGÁNICA - 3189</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>FG.1 - 692 - INGLÉS TÉCNICO I - 3186</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23" t="str">
-            <v>FG.1 - 692 - INGLÉS TÉCNICO I - 3192</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24" t="str">
-            <v>FG.4 - 693 - LIDERAZGO Y EMPRENDIMIENTO - 3187</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25" t="str">
-            <v>FG.4 - 693 - LIDERAZGO Y EMPRENDIMIENTO - 3193</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26" t="str">
-            <v>AG91 - 599 - LEGUMINOSAS DE GRANO - 3220</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>AG91 - 599 - LEGUMINOSAS DE GRANO - 3227</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>AG95 - 603 - PASTOS Y FORRAJES - 3224</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>AG95 - 603 - PASTOS Y FORRAJES - 3231</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>AG96 - 604 - FITOPATOLOGÍA AGRÍCOLA - 3225</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31" t="str">
-            <v>AG96 - 604 - FITOPATOLOGÍA AGRÍCOLA - 3232</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32" t="str">
-            <v>AG92 - 622 - ZOOTECNIA GENERAL - 3221</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33" t="str">
-            <v>AG92 - 622 - ZOOTECNIA GENERAL - 3228</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34" t="str">
-            <v>AG93 - 623 - MANEJO Y CONSERVACIÓN DE SUELOS - 3222</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35" t="str">
-            <v>AG93 - 623 - MANEJO Y CONSERVACIÓN DE SUELOS - 3229</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36" t="str">
-            <v>AG94 - 624 - SEMINARIO DE TESIS I - 3223</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37" t="str">
-            <v>AG94 - 624 - SEMINARIO DE TESIS I - 3230</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38" t="str">
-            <v>AG99 - 633 - MANEJO DE VIVEROS - 3226</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39" t="str">
-            <v>AG101 - 636 - MALEZAS - 3233</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40" t="str">
-            <v>AG51 - 574 - MECANIZACIÓN AGRÍCOLA - 3195</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="D41" t="str">
-            <v>AG51 - 574 - MECANIZACIÓN AGRÍCOLA - 3202</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42" t="str">
-            <v>AG52 - 575 - FISIOLOGÍA VEGETAL - 3196</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43" t="str">
-            <v>AG52 - 575 - FISIOLOGÍA VEGETAL - 3203</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44" t="str">
-            <v>AG53 - 576 - GENÉTICA VEGETAL - 3197</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45" t="str">
-            <v>AG53 - 576 - GENÉTICA VEGETAL - 3204</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46" t="str">
-            <v>AG54 - 577 - METEOROLOGÍA - 3198</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47" t="str">
-            <v>AG54 - 577 - METEOROLOGÍA - 3205</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48" t="str">
-            <v>AG55 - 578 - MICROBIOLOGÍA - 3199</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49" t="str">
-            <v>AG55 - 578 - MICROBIOLOGÍA - 3206</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50" t="str">
-            <v>EG19 - 580 - CONSTITUCIÓN Y DERECHOS HUMANOS - 3194</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51" t="str">
-            <v>EG19 - 580 - CONSTITUCIÓN Y DERECHOS HUMANOS - 3201</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="D52" t="str">
-            <v>AG56 - 611 - EDAFOLOGIA - 3200</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="D53" t="str">
-            <v>AG56 - 611 - EDAFOLOGIA - 3207</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="D54" t="str">
-            <v>AG61 - 581 - AGROTECNÍA - 3209</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="D55" t="str">
-            <v>AG62 - 582 - FERTILIDAD DEL SUELO - 3210</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="D56" t="str">
-            <v>AG63 - 583 - PROPAGACIÓN DE PLANTAS - 3211</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="D57" t="str">
-            <v>AG64 - 584 - ENTOMOLOGÍA GENERAL - 3212</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="D58" t="str">
-            <v>AG65 - 585 - TOPOGRAFÍA - 3213</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="D59" t="str">
-            <v>EG20 - 586 - PENSAMIENTO POLÍTICO CONTEMPORÁNEO - 3208</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="D60" t="str">
-            <v>AG71 - 587 - MEJORAMIENTO GENÉTICO Y BIOTECNOLOGÍA - 3214</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="D61" t="str">
-            <v>AG72 - 588 - MÉTODOS ESTADÍSTICOS DE INVESTIGACIÓN - 3215</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="D62" t="str">
-            <v>AG73 - 589 - MACROECONOMÍA - 3216</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="D63" t="str">
-            <v>AG74 - 590 - HIDROLOGÍA Y SISTEMAS DE RIEGO - 3217</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="D64" t="str">
-            <v>AG75 - 591 - CEREALES Y PSEUDOCEREALES - 3218</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="D65" t="str">
-            <v>AG76 - 592 - FITOPATOLOGÍA GENERAL - 3219</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1656,9 +1381,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U61" sqref="U61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,16 +1391,16 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
     <col min="8" max="8" width="0.85546875" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
     <col min="10" max="18" width="0.85546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" customWidth="1"/>
-    <col min="21" max="21" width="47.85546875" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" customWidth="1"/>
     <col min="22" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.42578125" customWidth="1"/>
     <col min="25" max="25" width="48.42578125" customWidth="1"/>
@@ -1710,7 +1435,9 @@
         <v>14</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -1766,7 +1493,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>19</v>
@@ -1781,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
@@ -1795,17 +1522,17 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="V2" t="str">
         <f>MID(U2,45,4)</f>
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2" si="0">MID(D2,1,10)</f>
@@ -1845,7 +1572,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>19</v>
@@ -1860,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -1874,17 +1601,17 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
       <c r="S3" s="10" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="V3" t="str">
         <f t="shared" ref="V3:V65" si="3">MID(U3,45,4)</f>
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" ref="W3:W65" si="4">MID(D3,1,10)</f>
@@ -1924,7 +1651,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>19</v>
@@ -1939,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -1953,17 +1680,17 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="10" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="T4" t="s">
         <v>30</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" si="3"/>
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="4"/>
@@ -2003,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>19</v>
@@ -2018,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -2032,17 +1759,17 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="10" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="T5" t="s">
         <v>30</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="3"/>
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="4"/>
@@ -2082,7 +1809,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>19</v>
@@ -2097,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -2111,17 +1838,17 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="10" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="T6" t="s">
         <v>30</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="3"/>
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="4"/>
@@ -2161,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>19</v>
@@ -2176,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -2190,17 +1917,17 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="10" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="T7" t="s">
         <v>30</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="4"/>
@@ -2240,7 +1967,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>19</v>
@@ -2255,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -2269,17 +1996,17 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="10" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="T8" t="s">
         <v>30</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="3"/>
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="4"/>
@@ -2319,7 +2046,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>19</v>
@@ -2334,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -2348,17 +2075,17 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="10" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="T9" t="s">
         <v>30</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="3"/>
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="4"/>
@@ -2398,7 +2125,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>19</v>
@@ -2413,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -2427,17 +2154,17 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="10" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="T10" t="s">
         <v>30</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="3"/>
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="4"/>
@@ -2477,7 +2204,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
@@ -2492,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -2506,17 +2233,17 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="10" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="T11" t="s">
         <v>30</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="3"/>
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="4"/>
@@ -2556,7 +2283,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>19</v>
@@ -2571,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -2585,17 +2312,17 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="10" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="T12" t="s">
         <v>30</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="3"/>
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="4"/>
@@ -2635,7 +2362,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>19</v>
@@ -2650,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -2664,17 +2391,17 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="10" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="T13" t="s">
         <v>30</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="3"/>
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="4"/>
@@ -2714,7 +2441,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -2728,24 +2455,24 @@
       <c r="H14">
         <v>37</v>
       </c>
-      <c r="I14" t="s">
-        <v>62</v>
+      <c r="I14" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="M14" t="s">
         <v>21</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="T14" t="s">
         <v>30</v>
       </c>
       <c r="U14" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="3"/>
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="4"/>
@@ -2785,7 +2512,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
@@ -2799,24 +2526,24 @@
       <c r="H15">
         <v>30</v>
       </c>
-      <c r="I15" t="s">
-        <v>62</v>
+      <c r="I15" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="M15" t="s">
         <v>21</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="T15" t="s">
         <v>30</v>
       </c>
       <c r="U15" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="3"/>
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="4"/>
@@ -2856,7 +2583,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -2870,24 +2597,24 @@
       <c r="H16">
         <v>35</v>
       </c>
-      <c r="I16" t="s">
-        <v>62</v>
+      <c r="I16" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="T16" t="s">
         <v>30</v>
       </c>
       <c r="U16" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="4"/>
@@ -2927,7 +2654,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
@@ -2941,24 +2668,24 @@
       <c r="H17">
         <v>31</v>
       </c>
-      <c r="I17" t="s">
-        <v>62</v>
+      <c r="I17" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="M17" t="s">
         <v>21</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="T17" t="s">
         <v>30</v>
       </c>
       <c r="U17" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="3"/>
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="4"/>
@@ -2998,7 +2725,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -3012,24 +2739,24 @@
       <c r="H18">
         <v>37</v>
       </c>
-      <c r="I18" t="s">
-        <v>62</v>
+      <c r="I18" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="T18" t="s">
         <v>30</v>
       </c>
       <c r="U18" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="4"/>
@@ -3069,7 +2796,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -3083,24 +2810,24 @@
       <c r="H19">
         <v>26</v>
       </c>
-      <c r="I19" t="s">
-        <v>62</v>
+      <c r="I19" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="M19" t="s">
         <v>21</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="T19" t="s">
         <v>30</v>
       </c>
       <c r="U19" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" si="3"/>
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="4"/>
@@ -3140,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
@@ -3154,24 +2881,24 @@
       <c r="H20">
         <v>37</v>
       </c>
-      <c r="I20" t="s">
-        <v>62</v>
+      <c r="I20" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="T20" t="s">
         <v>30</v>
       </c>
       <c r="U20" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="3"/>
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="4"/>
@@ -3211,7 +2938,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -3225,24 +2952,24 @@
       <c r="H21">
         <v>29</v>
       </c>
-      <c r="I21" t="s">
-        <v>62</v>
+      <c r="I21" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="T21" t="s">
         <v>30</v>
       </c>
       <c r="U21" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="3"/>
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="4"/>
@@ -3282,7 +3009,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -3296,24 +3023,24 @@
       <c r="H22">
         <v>36</v>
       </c>
-      <c r="I22" t="s">
-        <v>62</v>
+      <c r="I22" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="T22" t="s">
         <v>30</v>
       </c>
       <c r="U22" t="s">
-        <v>148</v>
+        <v>275</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="3"/>
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="4"/>
@@ -3353,7 +3080,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
@@ -3367,24 +3094,24 @@
       <c r="H23">
         <v>30</v>
       </c>
-      <c r="I23" t="s">
-        <v>62</v>
+      <c r="I23" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="M23" t="s">
         <v>21</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="T23" t="s">
         <v>30</v>
       </c>
       <c r="U23" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="4"/>
@@ -3413,76 +3140,76 @@
       <c r="AC23" s="10"/>
       <c r="AE23" s="8"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="16">
         <v>35</v>
       </c>
-      <c r="I24" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" t="s">
-        <v>21</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="I24" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="T24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="U24" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V24" t="str">
+      <c r="U24" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="V24" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="W24" t="str">
+        <v>296</v>
+      </c>
+      <c r="W24" s="16" t="str">
         <f t="shared" si="4"/>
         <v>FG.4 - 693</v>
       </c>
-      <c r="X24" t="str">
+      <c r="X24" s="16" t="str">
         <f t="shared" si="5"/>
         <v>LIDERAZGO Y EMPRENDIMIENTO - 3187</v>
       </c>
-      <c r="Y24" t="str">
+      <c r="Y24" s="16" t="str">
         <f t="shared" si="6"/>
         <v>AGRONOMIA III-M-A LIDERAZGO Y EMPRENDIMIENTO</v>
       </c>
-      <c r="Z24" t="str">
+      <c r="Z24" s="16" t="str">
         <f t="shared" si="7"/>
         <v>AG_III-M-A LIDERAZGO Y EMPRENDIMIENTO - 3187</v>
       </c>
-      <c r="AA24" t="str">
+      <c r="AA24" s="16" t="str">
         <f t="shared" si="8"/>
         <v>AG_III-M-A LIDERAZGO Y EM</v>
       </c>
-      <c r="AB24" t="str">
+      <c r="AB24" s="16" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S24,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/FyCtwY0JIulKVH9bPcFmdq' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
-      <c r="AC24" s="10"/>
-      <c r="AE24" s="8"/>
+      <c r="AC24" s="17"/>
+      <c r="AE24" s="18"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3495,7 +3222,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
@@ -3509,24 +3236,24 @@
       <c r="H25">
         <v>31</v>
       </c>
-      <c r="I25" t="s">
-        <v>62</v>
+      <c r="I25" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="M25" t="s">
         <v>21</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="T25" t="s">
         <v>30</v>
       </c>
       <c r="U25" t="s">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="3"/>
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="W25" t="str">
         <f t="shared" si="4"/>
@@ -3566,7 +3293,7 @@
         <v>18</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>26</v>
@@ -3581,7 +3308,7 @@
         <v>31</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -3595,17 +3322,17 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="10" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="T26" t="s">
         <v>30</v>
       </c>
       <c r="U26" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="3"/>
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="W26" t="str">
         <f t="shared" si="4"/>
@@ -3645,7 +3372,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>26</v>
@@ -3660,7 +3387,7 @@
         <v>26</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -3674,17 +3401,17 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="10" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="T27" t="s">
         <v>30</v>
       </c>
       <c r="U27" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V27" t="str">
         <f t="shared" si="3"/>
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="4"/>
@@ -3724,7 +3451,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>26</v>
@@ -3739,7 +3466,7 @@
         <v>34</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -3753,17 +3480,17 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
       <c r="S28" s="10" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="T28" t="s">
         <v>30</v>
       </c>
       <c r="U28" s="13" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="3"/>
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="W28" t="str">
         <f t="shared" si="4"/>
@@ -3803,7 +3530,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>26</v>
@@ -3818,7 +3545,7 @@
         <v>29</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -3832,17 +3559,17 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="10" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="T29" t="s">
         <v>30</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="3"/>
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="4"/>
@@ -3882,7 +3609,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>26</v>
@@ -3897,7 +3624,7 @@
         <v>51</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -3911,17 +3638,17 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
       <c r="S30" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="T30" t="s">
         <v>30</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="3"/>
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="4"/>
@@ -3961,7 +3688,7 @@
         <v>18</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>26</v>
@@ -3976,7 +3703,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -3990,17 +3717,17 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="10" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="T31" t="s">
         <v>30</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="3"/>
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="4"/>
@@ -4040,7 +3767,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>26</v>
@@ -4055,7 +3782,7 @@
         <v>45</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -4069,17 +3796,17 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="10" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="T32" t="s">
         <v>30</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="4"/>
@@ -4119,7 +3846,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>26</v>
@@ -4134,7 +3861,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -4148,17 +3875,17 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="10" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="T33" t="s">
         <v>30</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="3"/>
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="4"/>
@@ -4198,7 +3925,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>26</v>
@@ -4213,7 +3940,7 @@
         <v>44</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -4227,17 +3954,17 @@
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="10" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="T34" t="s">
         <v>30</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="3"/>
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" si="4"/>
@@ -4277,7 +4004,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>26</v>
@@ -4292,7 +4019,7 @@
         <v>18</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -4306,17 +4033,17 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="10" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="T35" t="s">
         <v>30</v>
       </c>
       <c r="U35" s="13" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="3"/>
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="4"/>
@@ -4356,7 +4083,7 @@
         <v>18</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>26</v>
@@ -4371,7 +4098,7 @@
         <v>40</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -4385,17 +4112,17 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="10" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="T36" t="s">
         <v>30</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="3"/>
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="4"/>
@@ -4435,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>26</v>
@@ -4450,7 +4177,7 @@
         <v>8</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -4464,17 +4191,17 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
       <c r="S37" s="10" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="T37" t="s">
         <v>30</v>
       </c>
       <c r="U37" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="3"/>
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="4"/>
@@ -4514,7 +4241,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>26</v>
@@ -4529,7 +4256,7 @@
         <v>26</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -4543,17 +4270,17 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="10" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="T38" t="s">
         <v>30</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="3"/>
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="4"/>
@@ -4593,7 +4320,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>26</v>
@@ -4608,7 +4335,7 @@
         <v>34</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
@@ -4622,17 +4349,17 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="10" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="T39" t="s">
         <v>30</v>
       </c>
       <c r="U39" s="13" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="3"/>
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="W39" t="str">
         <f t="shared" si="4"/>
@@ -4672,10 +4399,10 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -4686,24 +4413,24 @@
       <c r="H40">
         <v>9</v>
       </c>
-      <c r="I40" t="s">
-        <v>62</v>
+      <c r="I40" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="M40" t="s">
         <v>21</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="T40" t="s">
         <v>30</v>
       </c>
       <c r="U40" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="W40" t="str">
         <f t="shared" si="4"/>
@@ -4743,10 +4470,10 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -4757,24 +4484,24 @@
       <c r="H41">
         <v>21</v>
       </c>
-      <c r="I41" t="s">
-        <v>62</v>
+      <c r="I41" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="M41" t="s">
         <v>21</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="T41" t="s">
         <v>30</v>
       </c>
       <c r="U41" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" si="3"/>
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="W41" t="str">
         <f t="shared" si="4"/>
@@ -4814,10 +4541,10 @@
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -4828,24 +4555,24 @@
       <c r="H42">
         <v>34</v>
       </c>
-      <c r="I42" t="s">
-        <v>62</v>
+      <c r="I42" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="M42" t="s">
         <v>21</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="T42" t="s">
         <v>30</v>
       </c>
       <c r="U42" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" si="3"/>
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="W42" t="str">
         <f t="shared" si="4"/>
@@ -4885,10 +4612,10 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -4899,24 +4626,24 @@
       <c r="H43">
         <v>27</v>
       </c>
-      <c r="I43" t="s">
-        <v>62</v>
+      <c r="I43" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="M43" t="s">
         <v>21</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="T43" t="s">
         <v>30</v>
       </c>
-      <c r="U43" t="s">
-        <v>169</v>
+      <c r="U43" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" si="3"/>
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="4"/>
@@ -4956,10 +4683,10 @@
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -4970,24 +4697,24 @@
       <c r="H44">
         <v>34</v>
       </c>
-      <c r="I44" t="s">
-        <v>62</v>
+      <c r="I44" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="M44" t="s">
         <v>21</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="T44" t="s">
         <v>30</v>
       </c>
       <c r="U44" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="W44" t="str">
         <f t="shared" si="4"/>
@@ -5027,10 +4754,10 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -5041,24 +4768,24 @@
       <c r="H45">
         <v>28</v>
       </c>
-      <c r="I45" t="s">
-        <v>62</v>
+      <c r="I45" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="M45" t="s">
         <v>21</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="T45" t="s">
         <v>30</v>
       </c>
       <c r="U45" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="V45" t="str">
         <f t="shared" si="3"/>
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="W45" t="str">
         <f t="shared" si="4"/>
@@ -5098,10 +4825,10 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
@@ -5112,24 +4839,24 @@
       <c r="H46">
         <v>28</v>
       </c>
-      <c r="I46" t="s">
-        <v>62</v>
+      <c r="I46" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="M46" t="s">
         <v>21</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="T46" t="s">
         <v>30</v>
       </c>
       <c r="U46" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="V46" t="str">
         <f t="shared" si="3"/>
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="W46" t="str">
         <f t="shared" si="4"/>
@@ -5169,10 +4896,10 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -5183,24 +4910,24 @@
       <c r="H47">
         <v>21</v>
       </c>
-      <c r="I47" t="s">
-        <v>62</v>
+      <c r="I47" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="M47" t="s">
         <v>21</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="T47" t="s">
         <v>30</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="V47" t="str">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="4"/>
@@ -5240,10 +4967,10 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
@@ -5254,24 +4981,24 @@
       <c r="H48">
         <v>33</v>
       </c>
-      <c r="I48" t="s">
-        <v>62</v>
+      <c r="I48" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="M48" t="s">
         <v>21</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="T48" t="s">
         <v>30</v>
       </c>
       <c r="U48" t="s">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" si="3"/>
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="W48" t="str">
         <f t="shared" si="4"/>
@@ -5311,10 +5038,10 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -5325,24 +5052,24 @@
       <c r="H49">
         <v>27</v>
       </c>
-      <c r="I49" t="s">
-        <v>62</v>
+      <c r="I49" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="M49" t="s">
         <v>21</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="T49" t="s">
         <v>30</v>
       </c>
       <c r="U49" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" si="3"/>
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="W49" t="str">
         <f t="shared" si="4"/>
@@ -5382,10 +5109,10 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -5396,24 +5123,24 @@
       <c r="H50">
         <v>12</v>
       </c>
-      <c r="I50" t="s">
-        <v>62</v>
+      <c r="I50" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="M50" t="s">
         <v>21</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="T50" t="s">
         <v>30</v>
       </c>
       <c r="U50" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" si="3"/>
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="W50" t="str">
         <f t="shared" si="4"/>
@@ -5453,10 +5180,10 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -5467,24 +5194,24 @@
       <c r="H51">
         <v>17</v>
       </c>
-      <c r="I51" t="s">
-        <v>62</v>
+      <c r="I51" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="M51" t="s">
         <v>21</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="T51" t="s">
         <v>30</v>
       </c>
       <c r="U51" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" si="3"/>
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="W51" t="str">
         <f t="shared" si="4"/>
@@ -5524,10 +5251,10 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -5538,24 +5265,24 @@
       <c r="H52">
         <v>13</v>
       </c>
-      <c r="I52" t="s">
-        <v>62</v>
+      <c r="I52" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="M52" t="s">
         <v>21</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="T52" t="s">
         <v>30</v>
       </c>
       <c r="U52" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" si="3"/>
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="4"/>
@@ -5595,10 +5322,10 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -5609,24 +5336,24 @@
       <c r="H53">
         <v>12</v>
       </c>
-      <c r="I53" t="s">
-        <v>62</v>
+      <c r="I53" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="M53" t="s">
         <v>21</v>
       </c>
       <c r="S53" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="T53" t="s">
         <v>30</v>
       </c>
       <c r="U53" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="3"/>
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="W53" t="str">
         <f t="shared" si="4"/>
@@ -5666,10 +5393,10 @@
         <v>18</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>22</v>
@@ -5681,7 +5408,7 @@
         <v>47</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -5695,17 +5422,17 @@
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
       <c r="S54" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="T54" t="s">
         <v>30</v>
       </c>
       <c r="U54" s="13" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="3"/>
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="4"/>
@@ -5745,10 +5472,10 @@
         <v>18</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>22</v>
@@ -5760,7 +5487,7 @@
         <v>44</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
@@ -5774,17 +5501,17 @@
       <c r="Q55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="T55" t="s">
         <v>30</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="3"/>
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="W55" t="str">
         <f t="shared" si="4"/>
@@ -5824,10 +5551,10 @@
         <v>18</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>22</v>
@@ -5839,7 +5566,7 @@
         <v>50</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
@@ -5853,17 +5580,17 @@
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
       <c r="S56" s="10" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="T56" t="s">
         <v>30</v>
       </c>
       <c r="U56" s="13" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" si="3"/>
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="W56" t="str">
         <f t="shared" si="4"/>
@@ -5903,10 +5630,10 @@
         <v>18</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>22</v>
@@ -5918,7 +5645,7 @@
         <v>50</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
@@ -5932,17 +5659,17 @@
       <c r="Q57" s="13"/>
       <c r="R57" s="13"/>
       <c r="S57" s="10" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="T57" t="s">
         <v>30</v>
       </c>
       <c r="U57" s="13" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" si="3"/>
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="4"/>
@@ -5982,10 +5709,10 @@
         <v>18</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>22</v>
@@ -5997,7 +5724,7 @@
         <v>50</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -6011,17 +5738,17 @@
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
       <c r="S58" s="10" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="T58" t="s">
         <v>30</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" si="3"/>
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="W58" t="str">
         <f t="shared" si="4"/>
@@ -6061,10 +5788,10 @@
         <v>18</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>22</v>
@@ -6076,7 +5803,7 @@
         <v>50</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -6090,17 +5817,17 @@
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
       <c r="S59" s="10" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="T59" t="s">
         <v>30</v>
       </c>
       <c r="U59" s="13" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" si="3"/>
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="4"/>
@@ -6140,7 +5867,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
         <v>27</v>
@@ -6154,24 +5881,24 @@
       <c r="H60">
         <v>31</v>
       </c>
-      <c r="I60" t="s">
-        <v>62</v>
+      <c r="I60" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="M60" t="s">
         <v>21</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="T60" t="s">
         <v>30</v>
       </c>
       <c r="U60" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="V60" t="str">
         <f t="shared" si="3"/>
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="W60" t="str">
         <f t="shared" si="4"/>
@@ -6211,7 +5938,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
         <v>27</v>
@@ -6225,24 +5952,24 @@
       <c r="H61">
         <v>32</v>
       </c>
-      <c r="I61" t="s">
-        <v>62</v>
+      <c r="I61" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="M61" t="s">
         <v>21</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="T61" t="s">
         <v>30</v>
       </c>
       <c r="U61" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="V61" t="str">
         <f t="shared" si="3"/>
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="4"/>
@@ -6282,7 +6009,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
         <v>27</v>
@@ -6296,24 +6023,24 @@
       <c r="H62">
         <v>35</v>
       </c>
-      <c r="I62" t="s">
-        <v>62</v>
+      <c r="I62" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="M62" t="s">
         <v>21</v>
       </c>
       <c r="S62" s="10" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="T62" t="s">
         <v>30</v>
       </c>
       <c r="U62" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="V62" t="str">
         <f t="shared" si="3"/>
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="W62" t="str">
         <f t="shared" si="4"/>
@@ -6353,7 +6080,7 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E63" t="s">
         <v>27</v>
@@ -6367,24 +6094,24 @@
       <c r="H63">
         <v>26</v>
       </c>
-      <c r="I63" t="s">
-        <v>62</v>
+      <c r="I63" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="M63" t="s">
         <v>21</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="T63" t="s">
         <v>30</v>
       </c>
       <c r="U63" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="V63" t="str">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="4"/>
@@ -6424,7 +6151,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E64" t="s">
         <v>27</v>
@@ -6438,24 +6165,24 @@
       <c r="H64">
         <v>34</v>
       </c>
-      <c r="I64" t="s">
-        <v>62</v>
+      <c r="I64" s="13" t="s">
+        <v>239</v>
       </c>
       <c r="M64" t="s">
         <v>21</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="T64" t="s">
         <v>30</v>
       </c>
       <c r="U64" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" si="3"/>
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="4"/>
@@ -6495,7 +6222,7 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E65" t="s">
         <v>27</v>
@@ -6509,24 +6236,24 @@
       <c r="H65">
         <v>41</v>
       </c>
-      <c r="I65" t="s">
-        <v>62</v>
+      <c r="I65" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="M65" t="s">
         <v>21</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="T65" t="s">
         <v>30</v>
       </c>
       <c r="U65" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="V65" t="str">
         <f t="shared" si="3"/>
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="4"/>
@@ -6558,84 +6285,2180 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="U7" r:id="rId1" xr:uid="{8EB7A4EB-A3C6-482A-AB0F-894E2E617AEA}"/>
-    <hyperlink ref="U11" r:id="rId2" xr:uid="{3C86A444-301A-45EC-817D-81C1F9A4A225}"/>
-    <hyperlink ref="U24" r:id="rId3" xr:uid="{5132C5C2-2899-4708-ABE4-C053E45B104B}"/>
-    <hyperlink ref="U47" r:id="rId4" xr:uid="{59A739D1-ADB1-4714-9763-F4679226E3D3}"/>
-    <hyperlink ref="S3" r:id="rId5" xr:uid="{0F385E29-3B6D-409A-B94D-3C3DA2DAAA43}"/>
-    <hyperlink ref="S4" r:id="rId6" xr:uid="{2E2FA247-3BAE-44B2-851B-B171F814B3A4}"/>
-    <hyperlink ref="S5" r:id="rId7" xr:uid="{4BF7E138-C281-4959-8620-DA2557CD449D}"/>
-    <hyperlink ref="S6" r:id="rId8" xr:uid="{909AC677-8A7A-4422-8E93-878C343296C9}"/>
-    <hyperlink ref="S7" r:id="rId9" xr:uid="{181BD3E8-30E5-4CA2-A967-E2BA64944EBB}"/>
-    <hyperlink ref="S8" r:id="rId10" xr:uid="{796A7F7F-8188-4C1F-9E20-13ED78178D21}"/>
-    <hyperlink ref="S9" r:id="rId11" xr:uid="{1344F2EF-AEE8-43AB-9DDB-C19EF0EB8F4B}"/>
-    <hyperlink ref="S10" r:id="rId12" xr:uid="{6B06C127-B5AE-4094-BA84-66E7568170E2}"/>
-    <hyperlink ref="S11" r:id="rId13" xr:uid="{5BBB4EBC-7FFE-4D03-8858-7D13A4A94B8E}"/>
-    <hyperlink ref="S12" r:id="rId14" xr:uid="{A7F343A7-66D6-469B-B4A8-5D648E96BFCF}"/>
-    <hyperlink ref="S13" r:id="rId15" xr:uid="{7B5A7CDE-C739-4575-A051-5F1E1553F34E}"/>
-    <hyperlink ref="S14" r:id="rId16" xr:uid="{12C96AA3-6FB1-4858-9D4E-68FFFEE1B8CA}"/>
-    <hyperlink ref="S15" r:id="rId17" xr:uid="{57C9C5BB-9EDF-47C2-983E-4BBE92EA828E}"/>
-    <hyperlink ref="S16" r:id="rId18" xr:uid="{7C9A4678-5E5F-48FC-B5B1-4A13FD92D69F}"/>
-    <hyperlink ref="S17" r:id="rId19" xr:uid="{675CD9A7-8E9B-4B71-8893-CC9C1BB731E3}"/>
-    <hyperlink ref="S18" r:id="rId20" xr:uid="{C7372C6F-7E86-4CB2-BF81-3DF86214DCC9}"/>
-    <hyperlink ref="S19" r:id="rId21" xr:uid="{97ABD21D-5DC6-400E-B5EE-D69A93EC34AE}"/>
-    <hyperlink ref="S20" r:id="rId22" xr:uid="{AFE692BD-CD30-4A9D-A7A1-6F46BCC2EC71}"/>
-    <hyperlink ref="S21" r:id="rId23" xr:uid="{417A3176-EBB4-4F28-80C9-65C955F05522}"/>
-    <hyperlink ref="S22" r:id="rId24" xr:uid="{FC030337-5625-43B1-8064-3805AF74B50E}"/>
-    <hyperlink ref="S23" r:id="rId25" xr:uid="{A7606451-FF85-40D8-BF06-676B118CC80B}"/>
-    <hyperlink ref="S24" r:id="rId26" xr:uid="{90DB5689-C180-4058-8769-3A6AFDED8BE2}"/>
-    <hyperlink ref="S25" r:id="rId27" xr:uid="{AEBEA462-E5E6-4E22-8CC0-A3774CA3B848}"/>
-    <hyperlink ref="S26" r:id="rId28" xr:uid="{47F0DC91-2830-46AE-8AF1-B24ED043567A}"/>
-    <hyperlink ref="S27" r:id="rId29" xr:uid="{41DC2202-6FFF-46C2-9BB2-8364B19D4B7B}"/>
-    <hyperlink ref="S28" r:id="rId30" xr:uid="{8E4EFC82-38CA-4402-AAAF-82549CC86994}"/>
-    <hyperlink ref="S29" r:id="rId31" xr:uid="{0053CE89-C751-481F-B878-8EB98252C0AB}"/>
-    <hyperlink ref="S30" r:id="rId32" xr:uid="{3AFC25B5-A2A2-400E-A8DC-7A5EEFAC1F9C}"/>
-    <hyperlink ref="S31" r:id="rId33" xr:uid="{1A559D13-6582-4DB5-8AF8-DD30D8AF3913}"/>
-    <hyperlink ref="S32" r:id="rId34" xr:uid="{A7F39C54-9AD3-4D09-9D41-60D35374221B}"/>
-    <hyperlink ref="S33" r:id="rId35" xr:uid="{65F51BD7-84FD-4EFF-B369-791D1122CFA5}"/>
-    <hyperlink ref="S34" r:id="rId36" xr:uid="{8E9D7736-075D-429D-985E-CCD7CD9EA01B}"/>
-    <hyperlink ref="S35" r:id="rId37" xr:uid="{DA2FEF6C-1817-4F5E-8D13-3DC5C5C09D03}"/>
-    <hyperlink ref="S36" r:id="rId38" xr:uid="{6DA08988-1E4E-4A65-8E9B-A32CFAD4DF78}"/>
-    <hyperlink ref="S37" r:id="rId39" xr:uid="{194BB6B7-D02C-43F0-B34A-B6E1C4AE23E8}"/>
-    <hyperlink ref="S38" r:id="rId40" xr:uid="{E7DDEBA2-2048-4E24-AED9-F48C6E5B175B}"/>
-    <hyperlink ref="S39" r:id="rId41" xr:uid="{23B2B0F8-A47D-425E-A299-600BD5C7C357}"/>
-    <hyperlink ref="S40" r:id="rId42" xr:uid="{3DD0294A-8335-4647-B3BA-08F4F32861AE}"/>
-    <hyperlink ref="S41" r:id="rId43" xr:uid="{1F4DA62D-EB6C-4EC5-9664-21A775235679}"/>
-    <hyperlink ref="S42" r:id="rId44" xr:uid="{F595A9A0-A16B-45AD-AC33-1365E10E243E}"/>
-    <hyperlink ref="S43" r:id="rId45" xr:uid="{E7337A03-85C9-4F30-B9A3-D058F9B742AB}"/>
-    <hyperlink ref="S44" r:id="rId46" xr:uid="{C174D1B6-FB44-451A-AA3F-DB00B346CE7E}"/>
-    <hyperlink ref="S45" r:id="rId47" xr:uid="{2B985C50-056B-4CB6-8AC3-C4146F5A4AEF}"/>
-    <hyperlink ref="S46" r:id="rId48" xr:uid="{4093AC41-BD4A-40DC-AFDD-BF2D45F9951B}"/>
-    <hyperlink ref="S47" r:id="rId49" xr:uid="{478B617E-8AA2-437F-9B48-0AA8D9CC8281}"/>
-    <hyperlink ref="S48" r:id="rId50" xr:uid="{F2BA4B1E-7FF8-4A91-ABB8-6F9DE59584D5}"/>
-    <hyperlink ref="S49" r:id="rId51" xr:uid="{D40E9502-85A5-428D-85BF-2B7667C3DF45}"/>
-    <hyperlink ref="S50" r:id="rId52" xr:uid="{E2DA0479-4038-46D9-93F2-9E502FA1D30F}"/>
-    <hyperlink ref="S51" r:id="rId53" xr:uid="{70FA8695-8DAB-4A23-B020-2C310CA85271}"/>
-    <hyperlink ref="S52" r:id="rId54" xr:uid="{7F76DF3B-5FB0-4FDA-B321-4F9CB8B16EAB}"/>
-    <hyperlink ref="S56" r:id="rId55" xr:uid="{F25519F1-0227-4756-8689-46E896B0A64C}"/>
-    <hyperlink ref="S57" r:id="rId56" xr:uid="{78976FE5-E1F5-4BEF-859A-5B3C39E01E70}"/>
-    <hyperlink ref="S58" r:id="rId57" xr:uid="{4CF7257E-C78C-43D0-9B88-BC42D30568B0}"/>
-    <hyperlink ref="S59" r:id="rId58" xr:uid="{F632B7F1-F1A5-4B13-B330-B912A1A0E35D}"/>
-    <hyperlink ref="S60" r:id="rId59" xr:uid="{BD790F00-C624-4CDF-BBEC-2481E72B1BE7}"/>
-    <hyperlink ref="S61" r:id="rId60" xr:uid="{055898B5-A9BE-4492-BBCD-EE2663D61AD8}"/>
-    <hyperlink ref="S62" r:id="rId61" xr:uid="{33D95CCD-48B9-49B8-827B-FDE42F6BEE62}"/>
-    <hyperlink ref="S63" r:id="rId62" xr:uid="{EDBDF485-432B-49D0-AFDB-2A7D04F8B721}"/>
-    <hyperlink ref="S64" r:id="rId63" xr:uid="{7BD1F2A1-59AA-4400-869E-BA5A3BE9EDA2}"/>
-    <hyperlink ref="S65" r:id="rId64" xr:uid="{3D148C96-95BF-485D-A696-031D5F013451}"/>
+    <hyperlink ref="S3" r:id="rId1" xr:uid="{0F385E29-3B6D-409A-B94D-3C3DA2DAAA43}"/>
+    <hyperlink ref="S4" r:id="rId2" xr:uid="{2E2FA247-3BAE-44B2-851B-B171F814B3A4}"/>
+    <hyperlink ref="S5" r:id="rId3" xr:uid="{4BF7E138-C281-4959-8620-DA2557CD449D}"/>
+    <hyperlink ref="S6" r:id="rId4" xr:uid="{909AC677-8A7A-4422-8E93-878C343296C9}"/>
+    <hyperlink ref="S7" r:id="rId5" xr:uid="{181BD3E8-30E5-4CA2-A967-E2BA64944EBB}"/>
+    <hyperlink ref="S8" r:id="rId6" xr:uid="{796A7F7F-8188-4C1F-9E20-13ED78178D21}"/>
+    <hyperlink ref="S9" r:id="rId7" xr:uid="{1344F2EF-AEE8-43AB-9DDB-C19EF0EB8F4B}"/>
+    <hyperlink ref="S10" r:id="rId8" xr:uid="{6B06C127-B5AE-4094-BA84-66E7568170E2}"/>
+    <hyperlink ref="S11" r:id="rId9" xr:uid="{5BBB4EBC-7FFE-4D03-8858-7D13A4A94B8E}"/>
+    <hyperlink ref="S12" r:id="rId10" xr:uid="{A7F343A7-66D6-469B-B4A8-5D648E96BFCF}"/>
+    <hyperlink ref="S13" r:id="rId11" xr:uid="{7B5A7CDE-C739-4575-A051-5F1E1553F34E}"/>
+    <hyperlink ref="S14" r:id="rId12" xr:uid="{12C96AA3-6FB1-4858-9D4E-68FFFEE1B8CA}"/>
+    <hyperlink ref="S15" r:id="rId13" xr:uid="{57C9C5BB-9EDF-47C2-983E-4BBE92EA828E}"/>
+    <hyperlink ref="S16" r:id="rId14" xr:uid="{7C9A4678-5E5F-48FC-B5B1-4A13FD92D69F}"/>
+    <hyperlink ref="S17" r:id="rId15" xr:uid="{675CD9A7-8E9B-4B71-8893-CC9C1BB731E3}"/>
+    <hyperlink ref="S18" r:id="rId16" xr:uid="{C7372C6F-7E86-4CB2-BF81-3DF86214DCC9}"/>
+    <hyperlink ref="S19" r:id="rId17" xr:uid="{97ABD21D-5DC6-400E-B5EE-D69A93EC34AE}"/>
+    <hyperlink ref="S20" r:id="rId18" xr:uid="{AFE692BD-CD30-4A9D-A7A1-6F46BCC2EC71}"/>
+    <hyperlink ref="S21" r:id="rId19" xr:uid="{417A3176-EBB4-4F28-80C9-65C955F05522}"/>
+    <hyperlink ref="S22" r:id="rId20" xr:uid="{FC030337-5625-43B1-8064-3805AF74B50E}"/>
+    <hyperlink ref="S23" r:id="rId21" xr:uid="{A7606451-FF85-40D8-BF06-676B118CC80B}"/>
+    <hyperlink ref="S24" r:id="rId22" xr:uid="{90DB5689-C180-4058-8769-3A6AFDED8BE2}"/>
+    <hyperlink ref="S25" r:id="rId23" xr:uid="{AEBEA462-E5E6-4E22-8CC0-A3774CA3B848}"/>
+    <hyperlink ref="S26" r:id="rId24" xr:uid="{47F0DC91-2830-46AE-8AF1-B24ED043567A}"/>
+    <hyperlink ref="S27" r:id="rId25" xr:uid="{41DC2202-6FFF-46C2-9BB2-8364B19D4B7B}"/>
+    <hyperlink ref="S28" r:id="rId26" xr:uid="{8E4EFC82-38CA-4402-AAAF-82549CC86994}"/>
+    <hyperlink ref="S29" r:id="rId27" xr:uid="{0053CE89-C751-481F-B878-8EB98252C0AB}"/>
+    <hyperlink ref="S30" r:id="rId28" xr:uid="{3AFC25B5-A2A2-400E-A8DC-7A5EEFAC1F9C}"/>
+    <hyperlink ref="S31" r:id="rId29" xr:uid="{1A559D13-6582-4DB5-8AF8-DD30D8AF3913}"/>
+    <hyperlink ref="S32" r:id="rId30" xr:uid="{A7F39C54-9AD3-4D09-9D41-60D35374221B}"/>
+    <hyperlink ref="S33" r:id="rId31" xr:uid="{65F51BD7-84FD-4EFF-B369-791D1122CFA5}"/>
+    <hyperlink ref="S34" r:id="rId32" xr:uid="{8E9D7736-075D-429D-985E-CCD7CD9EA01B}"/>
+    <hyperlink ref="S35" r:id="rId33" xr:uid="{DA2FEF6C-1817-4F5E-8D13-3DC5C5C09D03}"/>
+    <hyperlink ref="S36" r:id="rId34" xr:uid="{6DA08988-1E4E-4A65-8E9B-A32CFAD4DF78}"/>
+    <hyperlink ref="S37" r:id="rId35" xr:uid="{194BB6B7-D02C-43F0-B34A-B6E1C4AE23E8}"/>
+    <hyperlink ref="S38" r:id="rId36" xr:uid="{E7DDEBA2-2048-4E24-AED9-F48C6E5B175B}"/>
+    <hyperlink ref="S39" r:id="rId37" xr:uid="{23B2B0F8-A47D-425E-A299-600BD5C7C357}"/>
+    <hyperlink ref="S40" r:id="rId38" xr:uid="{3DD0294A-8335-4647-B3BA-08F4F32861AE}"/>
+    <hyperlink ref="S41" r:id="rId39" xr:uid="{1F4DA62D-EB6C-4EC5-9664-21A775235679}"/>
+    <hyperlink ref="S42" r:id="rId40" xr:uid="{F595A9A0-A16B-45AD-AC33-1365E10E243E}"/>
+    <hyperlink ref="S43" r:id="rId41" xr:uid="{E7337A03-85C9-4F30-B9A3-D058F9B742AB}"/>
+    <hyperlink ref="S44" r:id="rId42" xr:uid="{C174D1B6-FB44-451A-AA3F-DB00B346CE7E}"/>
+    <hyperlink ref="S45" r:id="rId43" xr:uid="{2B985C50-056B-4CB6-8AC3-C4146F5A4AEF}"/>
+    <hyperlink ref="S46" r:id="rId44" xr:uid="{4093AC41-BD4A-40DC-AFDD-BF2D45F9951B}"/>
+    <hyperlink ref="S47" r:id="rId45" xr:uid="{478B617E-8AA2-437F-9B48-0AA8D9CC8281}"/>
+    <hyperlink ref="S48" r:id="rId46" xr:uid="{F2BA4B1E-7FF8-4A91-ABB8-6F9DE59584D5}"/>
+    <hyperlink ref="S49" r:id="rId47" xr:uid="{D40E9502-85A5-428D-85BF-2B7667C3DF45}"/>
+    <hyperlink ref="S50" r:id="rId48" xr:uid="{E2DA0479-4038-46D9-93F2-9E502FA1D30F}"/>
+    <hyperlink ref="S51" r:id="rId49" xr:uid="{70FA8695-8DAB-4A23-B020-2C310CA85271}"/>
+    <hyperlink ref="S52" r:id="rId50" xr:uid="{7F76DF3B-5FB0-4FDA-B321-4F9CB8B16EAB}"/>
+    <hyperlink ref="S56" r:id="rId51" xr:uid="{F25519F1-0227-4756-8689-46E896B0A64C}"/>
+    <hyperlink ref="S57" r:id="rId52" xr:uid="{78976FE5-E1F5-4BEF-859A-5B3C39E01E70}"/>
+    <hyperlink ref="S58" r:id="rId53" xr:uid="{4CF7257E-C78C-43D0-9B88-BC42D30568B0}"/>
+    <hyperlink ref="S59" r:id="rId54" xr:uid="{F632B7F1-F1A5-4B13-B330-B912A1A0E35D}"/>
+    <hyperlink ref="S60" r:id="rId55" xr:uid="{BD790F00-C624-4CDF-BBEC-2481E72B1BE7}"/>
+    <hyperlink ref="S61" r:id="rId56" xr:uid="{055898B5-A9BE-4492-BBCD-EE2663D61AD8}"/>
+    <hyperlink ref="S62" r:id="rId57" xr:uid="{33D95CCD-48B9-49B8-827B-FDE42F6BEE62}"/>
+    <hyperlink ref="S63" r:id="rId58" xr:uid="{EDBDF485-432B-49D0-AFDB-2A7D04F8B721}"/>
+    <hyperlink ref="S64" r:id="rId59" xr:uid="{7BD1F2A1-59AA-4400-869E-BA5A3BE9EDA2}"/>
+    <hyperlink ref="S65" r:id="rId60" xr:uid="{3D148C96-95BF-485D-A696-031D5F013451}"/>
+    <hyperlink ref="U43" r:id="rId61" xr:uid="{17D1D465-4044-49FA-99D7-656B84B8D63E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208B27A9-87B6-497F-9323-3600128A4AFD}">
+  <dimension ref="A1:M65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>228</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>233</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>234</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>234</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>235</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>228</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>236</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>237</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>237</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>242</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>243</v>
+      </c>
+      <c r="M37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s">
+        <v>229</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s">
+        <v>234</v>
+      </c>
+      <c r="M39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>234</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>234</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <v>33</v>
+      </c>
+      <c r="I42" t="s">
+        <v>244</v>
+      </c>
+      <c r="M42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>244</v>
+      </c>
+      <c r="M43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>245</v>
+      </c>
+      <c r="M44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>245</v>
+      </c>
+      <c r="M45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>246</v>
+      </c>
+      <c r="M46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>246</v>
+      </c>
+      <c r="M47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <v>33</v>
+      </c>
+      <c r="I48" t="s">
+        <v>231</v>
+      </c>
+      <c r="M48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s">
+        <v>235</v>
+      </c>
+      <c r="M49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>247</v>
+      </c>
+      <c r="M50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>233</v>
+      </c>
+      <c r="M51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>248</v>
+      </c>
+      <c r="M53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <v>48</v>
+      </c>
+      <c r="I54" t="s">
+        <v>229</v>
+      </c>
+      <c r="M54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s">
+        <v>248</v>
+      </c>
+      <c r="M55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56">
+        <v>50</v>
+      </c>
+      <c r="I56" t="s">
+        <v>239</v>
+      </c>
+      <c r="M56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57">
+        <v>50</v>
+      </c>
+      <c r="I57" t="s">
+        <v>252</v>
+      </c>
+      <c r="M57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58">
+        <v>50</v>
+      </c>
+      <c r="I58" t="s">
+        <v>246</v>
+      </c>
+      <c r="M58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>50</v>
+      </c>
+      <c r="I59" t="s">
+        <v>253</v>
+      </c>
+      <c r="M59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s">
+        <v>245</v>
+      </c>
+      <c r="M60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s">
+        <v>244</v>
+      </c>
+      <c r="M61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62">
+        <v>36</v>
+      </c>
+      <c r="I62" t="s">
+        <v>251</v>
+      </c>
+      <c r="M62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63">
+        <v>27</v>
+      </c>
+      <c r="I63" t="s">
+        <v>246</v>
+      </c>
+      <c r="M63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64">
+        <v>35</v>
+      </c>
+      <c r="I64" t="s">
+        <v>239</v>
+      </c>
+      <c r="M64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E4737-6198-4B8E-ADF8-148D6104AE44}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="C1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6646,19 +8469,19 @@
   <sheetData>
     <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
       </c>
       <c r="H1" t="str">
         <f>CONCATENATE(C1,",",D1,",",E1,",",F1,",",G1)</f>
@@ -6670,16 +8493,16 @@
         <v>15419141</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H8" si="0">CONCATENATE(C2,",",D2,",",E2,",",F2,",",G2)</f>
@@ -6691,16 +8514,16 @@
         <v>40662095</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
@@ -6712,16 +8535,16 @@
         <v>46117029</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -6733,16 +8556,16 @@
         <v>45976158</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -6754,16 +8577,16 @@
         <v>40332859</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -6772,19 +8595,19 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -6793,19 +8616,19 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -6818,19 +8641,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF84012F-06AA-4350-9BF3-B74CD49C74D0}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -6838,10 +8661,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6849,16 +8672,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <f>COUNTIFS([1]Sheet!D:D,[1]items!A4)</f>
-        <v>0</v>
+        <f>COUNTIFS(Sheet!E:E,items!A4)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="B5">
-        <f>COUNTIFS([1]Sheet!D:D,[1]items!A5)</f>
+        <f>COUNTIFS(Sheet!E:E,items!A5)</f>
         <v>0</v>
       </c>
     </row>
@@ -6867,8 +8690,8 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <f>COUNTIFS([1]Sheet!D:D,[1]items!A6)</f>
-        <v>0</v>
+        <f>COUNTIFS(Sheet!E:E,items!A6)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6876,26 +8699,26 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <f>COUNTIFS([1]Sheet!D:D,[1]items!A7)</f>
+        <f>COUNTIFS(Sheet!E:E,items!A7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8">
-        <f>COUNTIFS([1]Sheet!D:D,[1]items!A8)</f>
-        <v>0</v>
+        <f>COUNTIFS(Sheet!E:E,items!A8)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9">
-        <f>COUNTIFS([1]Sheet!D:D,[1]items!A9)</f>
-        <v>0</v>
+        <f>COUNTIFS(Sheet!E:E,items!A9)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6903,16 +8726,16 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <f>COUNTIFS([1]Sheet!D:D,[1]items!A10)</f>
-        <v>0</v>
+        <f>COUNTIFS(Sheet!E:E,items!A10)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="B11">
-        <f>COUNTIFS([1]Sheet!D:D,[1]items!A11)</f>
+        <f>COUNTIFS(Sheet!E:E,items!A11)</f>
         <v>0</v>
       </c>
     </row>
@@ -6921,17 +8744,23 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <f>COUNTIFS([1]Sheet!D:D,[1]items!A12)</f>
-        <v>0</v>
+        <f>COUNTIFS(Sheet!E:E,items!A12)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="B13">
-        <f>COUNTIFS([1]Sheet!D:D,[1]items!A13)</f>
+        <f>COUNTIFS(Sheet!E:E,items!A13)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>SUM(B4:B13)</f>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL_TRABAJADO/2023-1.xlsx
+++ b/EXCEL_TRABAJADO/2023-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E66C8C-9F01-431E-8E4A-FD625EF07FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ABB28-CBF5-47A8-A26C-3361BE9066AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="885" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1155" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="305">
   <si>
     <t>N°</t>
   </si>
@@ -890,6 +890,54 @@
   </si>
   <si>
     <t>https://aula.undc.edu.pe/course/view.php?id=309</t>
+  </si>
+  <si>
+    <t>AG63 - 583 - PROPAGACIÓN DE PLANTAS - 3253</t>
+  </si>
+  <si>
+    <t>MATOS LIZANA JULIO CESAR</t>
+  </si>
+  <si>
+    <t>AG64 - 584 - ENTOMOLOGÍA GENERAL - 3254</t>
+  </si>
+  <si>
+    <t>AG65 - 585 - TOPOGRAFÍA - 3255</t>
+  </si>
+  <si>
+    <t>EG20 - 586 - PENSAMIENTO POLÍTICO CONTEMPORÁNEO - 3256</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>CUELLAR FERNANDEZ JOSÉ MARTÍN</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=377</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=376</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=375</t>
+  </si>
+  <si>
+    <t>https://aula.undc.edu.pe/course/view.php?id=374</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Cr1yxFxmtbh9AUbrpyQXE6</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/FPRS7x1liP3FfsFWvRgqfm</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/Dt16YoLNiQSJ7ZWVznbNDr</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/EaPviu0x5zLK02gHWUMznj</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1072,7 +1120,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
@@ -1379,11 +1426,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AE69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,76 +3187,76 @@
       <c r="AC23" s="10"/>
       <c r="AE23" s="8"/>
     </row>
-    <row r="24" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="16" t="s">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="16" t="s">
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24">
         <v>35</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" t="s">
         <v>238</v>
       </c>
-      <c r="M24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S24" s="17" t="s">
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="T24" s="16" t="s">
+      <c r="T24" t="s">
         <v>30</v>
       </c>
-      <c r="U24" s="18" t="s">
+      <c r="U24" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="V24" s="16" t="str">
+      <c r="V24" t="str">
         <f t="shared" si="3"/>
         <v>296</v>
       </c>
-      <c r="W24" s="16" t="str">
+      <c r="W24" t="str">
         <f t="shared" si="4"/>
         <v>FG.4 - 693</v>
       </c>
-      <c r="X24" s="16" t="str">
+      <c r="X24" t="str">
         <f t="shared" si="5"/>
         <v>LIDERAZGO Y EMPRENDIMIENTO - 3187</v>
       </c>
-      <c r="Y24" s="16" t="str">
+      <c r="Y24" t="str">
         <f t="shared" si="6"/>
         <v>AGRONOMIA III-M-A LIDERAZGO Y EMPRENDIMIENTO</v>
       </c>
-      <c r="Z24" s="16" t="str">
+      <c r="Z24" t="str">
         <f t="shared" si="7"/>
         <v>AG_III-M-A LIDERAZGO Y EMPRENDIMIENTO - 3187</v>
       </c>
-      <c r="AA24" s="16" t="str">
+      <c r="AA24" t="str">
         <f t="shared" si="8"/>
         <v>AG_III-M-A LIDERAZGO Y EM</v>
       </c>
-      <c r="AB24" s="16" t="str">
+      <c r="AB24" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S24,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/FyCtwY0JIulKVH9bPcFmdq' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
-      <c r="AC24" s="17"/>
-      <c r="AE24" s="18"/>
+      <c r="AC24" s="16"/>
+      <c r="AE24" s="17"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -6281,6 +6328,270 @@
       </c>
       <c r="AC65" s="10"/>
       <c r="AE65" s="8"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>289</v>
+      </c>
+      <c r="E66" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66">
+        <v>9</v>
+      </c>
+      <c r="I66" t="s">
+        <v>290</v>
+      </c>
+      <c r="S66" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="T66" t="s">
+        <v>296</v>
+      </c>
+      <c r="U66" t="s">
+        <v>297</v>
+      </c>
+      <c r="V66" t="str">
+        <f t="shared" ref="V66:V69" si="9">MID(U66,45,4)</f>
+        <v>377</v>
+      </c>
+      <c r="W66" t="str">
+        <f t="shared" ref="W66:W69" si="10">MID(D66,1,10)</f>
+        <v>AG63 - 583</v>
+      </c>
+      <c r="X66" t="str">
+        <f t="shared" ref="X66:X69" si="11">TRIM(MID(D66,14,222))</f>
+        <v>PROPAGACIÓN DE PLANTAS - 3253</v>
+      </c>
+      <c r="Y66" t="str">
+        <f t="shared" ref="Y66:Y69" si="12">TRIM(CONCATENATE("AGRONOMIA ",E66,"-",F66,"-",G66," ",LEFT(X66,LEN(X66)-7)))</f>
+        <v>AGRONOMIA VI-M-A PROPAGACIÓN DE PLANTAS</v>
+      </c>
+      <c r="Z66" t="str">
+        <f t="shared" ref="Z66:Z69" si="13">CONCATENATE(B66,"_",E66,"-",F66,"-",G66," ",X66)</f>
+        <v>AG_VI-M-A PROPAGACIÓN DE PLANTAS - 3253</v>
+      </c>
+      <c r="AA66" t="str">
+        <f t="shared" ref="AA66:AA69" si="14">TRIM(MID(Z66,1,25))</f>
+        <v>AG_VI-M-A PROPAGACIÓN DE</v>
+      </c>
+      <c r="AB66" t="str">
+        <f>CONCATENATE("&lt;p&gt;&lt;a href='",S66,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/Cr1yxFxmtbh9AUbrpyQXE6' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>291</v>
+      </c>
+      <c r="E67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>290</v>
+      </c>
+      <c r="S67" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="T67" t="s">
+        <v>296</v>
+      </c>
+      <c r="U67" t="s">
+        <v>298</v>
+      </c>
+      <c r="V67" t="str">
+        <f t="shared" si="9"/>
+        <v>376</v>
+      </c>
+      <c r="W67" t="str">
+        <f t="shared" si="10"/>
+        <v>AG64 - 584</v>
+      </c>
+      <c r="X67" t="str">
+        <f t="shared" si="11"/>
+        <v>ENTOMOLOGÍA GENERAL - 3254</v>
+      </c>
+      <c r="Y67" t="str">
+        <f t="shared" si="12"/>
+        <v>AGRONOMIA VI-M-A ENTOMOLOGÍA GENERAL</v>
+      </c>
+      <c r="Z67" t="str">
+        <f t="shared" si="13"/>
+        <v>AG_VI-M-A ENTOMOLOGÍA GENERAL - 3254</v>
+      </c>
+      <c r="AA67" t="str">
+        <f t="shared" si="14"/>
+        <v>AG_VI-M-A ENTOMOLOGÍA GEN</v>
+      </c>
+      <c r="AB67" t="str">
+        <f>CONCATENATE("&lt;p&gt;&lt;a href='",S67,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/FPRS7x1liP3FfsFWvRgqfm' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68">
+        <v>26</v>
+      </c>
+      <c r="I68" t="s">
+        <v>290</v>
+      </c>
+      <c r="S68" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="T68" t="s">
+        <v>296</v>
+      </c>
+      <c r="U68" t="s">
+        <v>299</v>
+      </c>
+      <c r="V68" t="str">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="W68" t="str">
+        <f t="shared" si="10"/>
+        <v>AG65 - 585</v>
+      </c>
+      <c r="X68" t="str">
+        <f t="shared" si="11"/>
+        <v>TOPOGRAFÍA - 3255</v>
+      </c>
+      <c r="Y68" t="str">
+        <f t="shared" si="12"/>
+        <v>AGRONOMIA VI-M-A TOPOGRAFÍA</v>
+      </c>
+      <c r="Z68" t="str">
+        <f t="shared" si="13"/>
+        <v>AG_VI-M-A TOPOGRAFÍA - 3255</v>
+      </c>
+      <c r="AA68" t="str">
+        <f t="shared" si="14"/>
+        <v>AG_VI-M-A TOPOGRAFÍA - 32</v>
+      </c>
+      <c r="AB68" t="str">
+        <f>CONCATENATE("&lt;p&gt;&lt;a href='",S68,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/Dt16YoLNiQSJ7ZWVznbNDr' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>293</v>
+      </c>
+      <c r="E69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" t="s">
+        <v>294</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69">
+        <v>7</v>
+      </c>
+      <c r="I69" t="s">
+        <v>295</v>
+      </c>
+      <c r="S69" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="T69" t="s">
+        <v>296</v>
+      </c>
+      <c r="U69" t="s">
+        <v>300</v>
+      </c>
+      <c r="V69" t="str">
+        <f t="shared" si="9"/>
+        <v>374</v>
+      </c>
+      <c r="W69" t="str">
+        <f t="shared" si="10"/>
+        <v>EG20 - 586</v>
+      </c>
+      <c r="X69" t="str">
+        <f t="shared" si="11"/>
+        <v>PENSAMIENTO POLÍTICO CONTEMPORÁNEO - 3256</v>
+      </c>
+      <c r="Y69" t="str">
+        <f t="shared" si="12"/>
+        <v>AGRONOMIA VI-N-A PENSAMIENTO POLÍTICO CONTEMPORÁNEO</v>
+      </c>
+      <c r="Z69" t="str">
+        <f t="shared" si="13"/>
+        <v>AG_VI-N-A PENSAMIENTO POLÍTICO CONTEMPORÁNEO - 3256</v>
+      </c>
+      <c r="AA69" t="str">
+        <f t="shared" si="14"/>
+        <v>AG_VI-N-A PENSAMIENTO POL</v>
+      </c>
+      <c r="AB69" t="str">
+        <f>CONCATENATE("&lt;p&gt;&lt;a href='",S69,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/EaPviu0x5zLK02gHWUMznj' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6346,9 +6657,13 @@
     <hyperlink ref="S64" r:id="rId59" xr:uid="{7BD1F2A1-59AA-4400-869E-BA5A3BE9EDA2}"/>
     <hyperlink ref="S65" r:id="rId60" xr:uid="{3D148C96-95BF-485D-A696-031D5F013451}"/>
     <hyperlink ref="U43" r:id="rId61" xr:uid="{17D1D465-4044-49FA-99D7-656B84B8D63E}"/>
+    <hyperlink ref="S66" r:id="rId62" xr:uid="{0C90488E-CCF0-4D03-A583-B535D2B6CCCB}"/>
+    <hyperlink ref="S67" r:id="rId63" xr:uid="{0DD32316-3FFE-4604-9BD6-351053D73B0E}"/>
+    <hyperlink ref="S68" r:id="rId64" xr:uid="{144D8471-20D0-4D2C-802C-95648339E2A1}"/>
+    <hyperlink ref="S69" r:id="rId65" xr:uid="{E7E3DF2C-10C4-4306-B67C-BBFD53E54BFC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
 
@@ -8718,7 +9033,7 @@
       </c>
       <c r="B9">
         <f>COUNTIFS(Sheet!E:E,items!A9)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8760,7 +9075,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>SUM(B4:B13)</f>
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL_TRABAJADO/2023-1.xlsx
+++ b/EXCEL_TRABAJADO/2023-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ABB28-CBF5-47A8-A26C-3361BE9066AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA643CCD-2D02-4F28-90F4-432A29505851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1155" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="308">
   <si>
     <t>N°</t>
   </si>
@@ -938,6 +938,15 @@
   </si>
   <si>
     <t>https://chat.whatsapp.com/EaPviu0x5zLK02gHWUMznj</t>
+  </si>
+  <si>
+    <t>AG76 - 592 - FITOPATOLOGÍA GENERAL - 3259</t>
+  </si>
+  <si>
+    <t>TARDE</t>
+  </si>
+  <si>
+    <t>https://chat.whatsapp.com/HCW8kplTG7DHTjzNrQJlKW</t>
   </si>
 </sst>
 </file>
@@ -1426,11 +1435,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AE69"/>
+  <dimension ref="A1:AE70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,7 +3381,7 @@
         <v>186</v>
       </c>
       <c r="T26" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U26" s="13" t="s">
         <v>146</v>
@@ -3451,7 +3460,7 @@
         <v>187</v>
       </c>
       <c r="T27" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U27" s="13" t="s">
         <v>149</v>
@@ -3530,7 +3539,7 @@
         <v>188</v>
       </c>
       <c r="T28" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U28" s="13" t="s">
         <v>139</v>
@@ -3609,7 +3618,7 @@
         <v>189</v>
       </c>
       <c r="T29" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U29" s="13" t="s">
         <v>152</v>
@@ -3688,7 +3697,7 @@
         <v>190</v>
       </c>
       <c r="T30" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U30" s="13" t="s">
         <v>141</v>
@@ -3767,7 +3776,7 @@
         <v>191</v>
       </c>
       <c r="T31" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U31" s="13" t="s">
         <v>153</v>
@@ -3846,7 +3855,7 @@
         <v>192</v>
       </c>
       <c r="T32" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U32" s="13" t="s">
         <v>148</v>
@@ -3925,7 +3934,7 @@
         <v>193</v>
       </c>
       <c r="T33" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U33" s="13" t="s">
         <v>155</v>
@@ -4004,7 +4013,7 @@
         <v>194</v>
       </c>
       <c r="T34" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U34" s="13" t="s">
         <v>143</v>
@@ -4083,7 +4092,7 @@
         <v>195</v>
       </c>
       <c r="T35" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U35" s="13" t="s">
         <v>150</v>
@@ -4162,7 +4171,7 @@
         <v>196</v>
       </c>
       <c r="T36" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U36" s="13" t="s">
         <v>145</v>
@@ -4241,7 +4250,7 @@
         <v>197</v>
       </c>
       <c r="T37" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U37" s="13" t="s">
         <v>151</v>
@@ -4320,7 +4329,7 @@
         <v>198</v>
       </c>
       <c r="T38" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U38" s="13" t="s">
         <v>147</v>
@@ -4399,7 +4408,7 @@
         <v>199</v>
       </c>
       <c r="T39" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U39" s="13" t="s">
         <v>154</v>
@@ -4470,7 +4479,7 @@
         <v>200</v>
       </c>
       <c r="T40" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U40" t="s">
         <v>279</v>
@@ -4541,7 +4550,7 @@
         <v>201</v>
       </c>
       <c r="T41" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U41" t="s">
         <v>280</v>
@@ -4612,7 +4621,7 @@
         <v>202</v>
       </c>
       <c r="T42" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U42" t="s">
         <v>281</v>
@@ -4683,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="T43" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U43" s="8" t="s">
         <v>282</v>
@@ -4754,7 +4763,7 @@
         <v>204</v>
       </c>
       <c r="T44" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U44" t="s">
         <v>283</v>
@@ -4825,7 +4834,7 @@
         <v>205</v>
       </c>
       <c r="T45" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U45" t="s">
         <v>128</v>
@@ -4896,7 +4905,7 @@
         <v>206</v>
       </c>
       <c r="T46" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U46" t="s">
         <v>284</v>
@@ -4967,7 +4976,7 @@
         <v>207</v>
       </c>
       <c r="T47" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U47" s="8" t="s">
         <v>130</v>
@@ -5038,7 +5047,7 @@
         <v>208</v>
       </c>
       <c r="T48" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U48" t="s">
         <v>285</v>
@@ -5109,7 +5118,7 @@
         <v>209</v>
       </c>
       <c r="T49" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U49" t="s">
         <v>126</v>
@@ -5180,7 +5189,7 @@
         <v>210</v>
       </c>
       <c r="T50" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U50" t="s">
         <v>286</v>
@@ -5251,7 +5260,7 @@
         <v>211</v>
       </c>
       <c r="T51" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U51" t="s">
         <v>287</v>
@@ -5322,7 +5331,7 @@
         <v>212</v>
       </c>
       <c r="T52" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U52" t="s">
         <v>288</v>
@@ -5393,7 +5402,7 @@
         <v>213</v>
       </c>
       <c r="T53" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U53" t="s">
         <v>134</v>
@@ -5472,7 +5481,7 @@
         <v>214</v>
       </c>
       <c r="T54" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U54" s="13" t="s">
         <v>132</v>
@@ -5551,7 +5560,7 @@
         <v>215</v>
       </c>
       <c r="T55" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U55" s="13" t="s">
         <v>129</v>
@@ -5630,7 +5639,7 @@
         <v>216</v>
       </c>
       <c r="T56" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U56" s="13" t="s">
         <v>131</v>
@@ -5709,7 +5718,7 @@
         <v>217</v>
       </c>
       <c r="T57" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U57" s="13" t="s">
         <v>127</v>
@@ -5788,7 +5797,7 @@
         <v>218</v>
       </c>
       <c r="T58" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U58" s="13" t="s">
         <v>135</v>
@@ -5867,7 +5876,7 @@
         <v>219</v>
       </c>
       <c r="T59" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U59" s="13" t="s">
         <v>136</v>
@@ -5938,7 +5947,7 @@
         <v>220</v>
       </c>
       <c r="T60" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U60" t="s">
         <v>137</v>
@@ -6009,7 +6018,7 @@
         <v>221</v>
       </c>
       <c r="T61" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U61" t="s">
         <v>133</v>
@@ -6080,7 +6089,7 @@
         <v>222</v>
       </c>
       <c r="T62" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U62" t="s">
         <v>142</v>
@@ -6151,7 +6160,7 @@
         <v>223</v>
       </c>
       <c r="T63" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U63" t="s">
         <v>144</v>
@@ -6222,7 +6231,7 @@
         <v>224</v>
       </c>
       <c r="T64" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U64" t="s">
         <v>138</v>
@@ -6293,7 +6302,7 @@
         <v>225</v>
       </c>
       <c r="T65" t="s">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="U65" t="s">
         <v>140</v>
@@ -6591,6 +6600,72 @@
       <c r="AB69" t="str">
         <f>CONCATENATE("&lt;p&gt;&lt;a href='",S69,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/EaPviu0x5zLK02gHWUMznj' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>305</v>
+      </c>
+      <c r="E70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" t="s">
+        <v>306</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s">
+        <v>254</v>
+      </c>
+      <c r="S70" t="s">
+        <v>307</v>
+      </c>
+      <c r="T70" t="s">
+        <v>296</v>
+      </c>
+      <c r="U70" t="s">
+        <v>299</v>
+      </c>
+      <c r="V70" t="str">
+        <f t="shared" ref="V70" si="15">MID(U70,45,4)</f>
+        <v>375</v>
+      </c>
+      <c r="W70" t="str">
+        <f t="shared" ref="W70" si="16">MID(D70,1,10)</f>
+        <v>AG76 - 592</v>
+      </c>
+      <c r="X70" t="str">
+        <f t="shared" ref="X70" si="17">TRIM(MID(D70,14,222))</f>
+        <v>FITOPATOLOGÍA GENERAL - 3259</v>
+      </c>
+      <c r="Y70" t="str">
+        <f t="shared" ref="Y70" si="18">TRIM(CONCATENATE("AGRONOMIA ",E70,"-",F70,"-",G70," ",LEFT(X70,LEN(X70)-7)))</f>
+        <v>AGRONOMIA VII-TARDE-B FITOPATOLOGÍA GENERAL</v>
+      </c>
+      <c r="Z70" t="str">
+        <f t="shared" ref="Z70" si="19">CONCATENATE(B70,"_",E70,"-",F70,"-",G70," ",X70)</f>
+        <v>AG_VII-TARDE-B FITOPATOLOGÍA GENERAL - 3259</v>
+      </c>
+      <c r="AA70" t="str">
+        <f t="shared" ref="AA70" si="20">TRIM(MID(Z70,1,25))</f>
+        <v>AG_VII-TARDE-B FITOPATOLO</v>
+      </c>
+      <c r="AB70" t="str">
+        <f>CONCATENATE("&lt;p&gt;&lt;a href='",S70,"' target='_blank'&gt;&lt;img src='",items!$B$1,"' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;")</f>
+        <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/HCW8kplTG7DHTjzNrQJlKW' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -9042,7 +9117,7 @@
       </c>
       <c r="B10">
         <f>COUNTIFS(Sheet!E:E,items!A10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9075,7 +9150,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>SUM(B4:B13)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL_TRABAJADO/2023-1.xlsx
+++ b/EXCEL_TRABAJADO/2023-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA643CCD-2D02-4F28-90F4-432A29505851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF2DF64-0B52-4F56-868A-13A4916FD747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1437,9 +1437,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AE70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X30" sqref="X30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EXCEL_TRABAJADO/2023-1.xlsx
+++ b/EXCEL_TRABAJADO/2023-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF2DF64-0B52-4F56-868A-13A4916FD747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED602AF-C189-4881-96C2-9EB6564391C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="307">
   <si>
     <t>N°</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>FLAG</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>fvega@undc.edu.pe</t>
@@ -953,7 +950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1439,10 +1436,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
@@ -1468,7 +1465,7 @@
     <col min="31" max="31" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1489,7 @@
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1538,7 +1535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1549,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>19</v>
@@ -1564,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
@@ -1578,13 +1575,13 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V2" t="str">
         <f>MID(U2,45,4)</f>
@@ -1617,7 +1614,7 @@
       <c r="AC2" s="10"/>
       <c r="AE2" s="8"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1628,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>19</v>
@@ -1643,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -1657,13 +1654,13 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
       <c r="S3" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T3" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V3" t="str">
         <f t="shared" ref="V3:V65" si="3">MID(U3,45,4)</f>
@@ -1696,7 +1693,7 @@
       <c r="AC3" s="10"/>
       <c r="AE3" s="8"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>19</v>
@@ -1722,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -1736,13 +1733,13 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" si="3"/>
@@ -1775,7 +1772,7 @@
       <c r="AC4" s="10"/>
       <c r="AE4" s="8"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1786,7 +1783,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>19</v>
@@ -1801,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -1815,13 +1812,13 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T5" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="3"/>
@@ -1854,7 +1851,7 @@
       <c r="AC5" s="10"/>
       <c r="AE5" s="8"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1865,7 +1862,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>19</v>
@@ -1880,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -1894,13 +1891,13 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T6" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="3"/>
@@ -1933,7 +1930,7 @@
       <c r="AC6" s="10"/>
       <c r="AE6" s="8"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1944,7 +1941,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>19</v>
@@ -1959,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -1973,13 +1970,13 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T7" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="3"/>
@@ -2012,7 +2009,7 @@
       <c r="AC7" s="10"/>
       <c r="AE7" s="8"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2023,7 +2020,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>19</v>
@@ -2038,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -2052,13 +2049,13 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T8" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="3"/>
@@ -2091,7 +2088,7 @@
       <c r="AC8" s="10"/>
       <c r="AE8" s="8"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2102,7 +2099,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>19</v>
@@ -2117,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -2131,13 +2128,13 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T9" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="3"/>
@@ -2170,7 +2167,7 @@
       <c r="AC9" s="10"/>
       <c r="AE9" s="8"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2181,7 +2178,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>19</v>
@@ -2196,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -2210,13 +2207,13 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T10" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="3"/>
@@ -2249,7 +2246,7 @@
       <c r="AC10" s="10"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
@@ -2275,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -2289,13 +2286,13 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T11" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="3"/>
@@ -2328,7 +2325,7 @@
       <c r="AC11" s="10"/>
       <c r="AE11" s="8"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2339,7 +2336,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>19</v>
@@ -2354,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -2368,13 +2365,13 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T12" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="3"/>
@@ -2407,7 +2404,7 @@
       <c r="AC12" s="10"/>
       <c r="AE12" s="8"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2418,7 +2415,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>19</v>
@@ -2433,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -2447,13 +2444,13 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T13" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="3"/>
@@ -2486,7 +2483,7 @@
       <c r="AC13" s="10"/>
       <c r="AE13" s="8"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2497,7 +2494,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -2512,19 +2509,19 @@
         <v>37</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M14" t="s">
         <v>21</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T14" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="3"/>
@@ -2557,7 +2554,7 @@
       <c r="AC14" s="10"/>
       <c r="AE14" s="8"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2568,7 +2565,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
@@ -2583,19 +2580,19 @@
         <v>30</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M15" t="s">
         <v>21</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T15" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="3"/>
@@ -2628,7 +2625,7 @@
       <c r="AC15" s="10"/>
       <c r="AE15" s="8"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2639,7 +2636,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -2654,19 +2651,19 @@
         <v>35</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T16" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="3"/>
@@ -2699,7 +2696,7 @@
       <c r="AC16" s="10"/>
       <c r="AE16" s="8"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2710,7 +2707,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
@@ -2725,19 +2722,19 @@
         <v>31</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M17" t="s">
         <v>21</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T17" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="3"/>
@@ -2770,7 +2767,7 @@
       <c r="AC17" s="10"/>
       <c r="AE17" s="8"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2781,7 +2778,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -2796,19 +2793,19 @@
         <v>37</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T18" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="3"/>
@@ -2841,7 +2838,7 @@
       <c r="AC18" s="10"/>
       <c r="AE18" s="8"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2852,7 +2849,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -2867,19 +2864,19 @@
         <v>26</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s">
         <v>21</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T19" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" si="3"/>
@@ -2912,7 +2909,7 @@
       <c r="AC19" s="10"/>
       <c r="AE19" s="8"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2923,7 +2920,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
@@ -2938,19 +2935,19 @@
         <v>37</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T20" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="3"/>
@@ -2983,7 +2980,7 @@
       <c r="AC20" s="10"/>
       <c r="AE20" s="8"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2994,7 +2991,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -3009,19 +3006,19 @@
         <v>29</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T21" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="3"/>
@@ -3054,7 +3051,7 @@
       <c r="AC21" s="10"/>
       <c r="AE21" s="8"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3065,7 +3062,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -3080,19 +3077,19 @@
         <v>36</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T22" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="3"/>
@@ -3125,7 +3122,7 @@
       <c r="AC22" s="10"/>
       <c r="AE22" s="8"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3136,7 +3133,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
@@ -3151,19 +3148,19 @@
         <v>30</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s">
         <v>21</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T23" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="3"/>
@@ -3196,7 +3193,7 @@
       <c r="AC23" s="10"/>
       <c r="AE23" s="8"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3207,7 +3204,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>24</v>
@@ -3222,19 +3219,19 @@
         <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s">
         <v>21</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T24" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="3"/>
@@ -3267,7 +3264,7 @@
       <c r="AC24" s="16"/>
       <c r="AE24" s="17"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3278,7 +3275,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
@@ -3293,19 +3290,19 @@
         <v>31</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s">
         <v>21</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T25" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="U25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="3"/>
@@ -3338,7 +3335,7 @@
       <c r="AC25" s="10"/>
       <c r="AE25" s="8"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -3349,7 +3346,7 @@
         <v>18</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>26</v>
@@ -3364,7 +3361,7 @@
         <v>31</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -3378,13 +3375,13 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U26" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="3"/>
@@ -3417,7 +3414,7 @@
       <c r="AC26" s="10"/>
       <c r="AE26" s="8"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -3428,7 +3425,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>26</v>
@@ -3443,7 +3440,7 @@
         <v>26</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -3457,13 +3454,13 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U27" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V27" t="str">
         <f t="shared" si="3"/>
@@ -3496,7 +3493,7 @@
       <c r="AC27" s="10"/>
       <c r="AE27" s="8"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -3507,7 +3504,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>26</v>
@@ -3522,7 +3519,7 @@
         <v>34</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -3536,13 +3533,13 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
       <c r="S28" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U28" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="3"/>
@@ -3575,7 +3572,7 @@
       <c r="AC28" s="10"/>
       <c r="AE28" s="8"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -3586,7 +3583,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>26</v>
@@ -3601,7 +3598,7 @@
         <v>29</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -3615,13 +3612,13 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="3"/>
@@ -3654,7 +3651,7 @@
       <c r="AC29" s="10"/>
       <c r="AE29" s="8"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -3665,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>26</v>
@@ -3680,7 +3677,7 @@
         <v>51</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -3694,13 +3691,13 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
       <c r="S30" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="3"/>
@@ -3733,7 +3730,7 @@
       <c r="AC30" s="10"/>
       <c r="AE30" s="8"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -3744,7 +3741,7 @@
         <v>18</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>26</v>
@@ -3759,7 +3756,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -3773,13 +3770,13 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="3"/>
@@ -3812,7 +3809,7 @@
       <c r="AC31" s="10"/>
       <c r="AE31" s="8"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -3823,7 +3820,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>26</v>
@@ -3838,7 +3835,7 @@
         <v>45</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -3852,13 +3849,13 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="3"/>
@@ -3891,7 +3888,7 @@
       <c r="AC32" s="10"/>
       <c r="AE32" s="8"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -3902,7 +3899,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>26</v>
@@ -3917,7 +3914,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -3931,13 +3928,13 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="3"/>
@@ -3970,7 +3967,7 @@
       <c r="AC33" s="10"/>
       <c r="AE33" s="8"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -3981,7 +3978,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>26</v>
@@ -3996,7 +3993,7 @@
         <v>44</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -4010,13 +4007,13 @@
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="3"/>
@@ -4049,7 +4046,7 @@
       <c r="AC34" s="10"/>
       <c r="AE34" s="8"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -4060,7 +4057,7 @@
         <v>18</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>26</v>
@@ -4075,7 +4072,7 @@
         <v>18</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -4089,13 +4086,13 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U35" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" si="3"/>
@@ -4128,7 +4125,7 @@
       <c r="AC35" s="10"/>
       <c r="AE35" s="8"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -4139,7 +4136,7 @@
         <v>18</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>26</v>
@@ -4154,7 +4151,7 @@
         <v>40</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -4168,13 +4165,13 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="3"/>
@@ -4207,7 +4204,7 @@
       <c r="AC36" s="10"/>
       <c r="AE36" s="8"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -4218,7 +4215,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>26</v>
@@ -4233,7 +4230,7 @@
         <v>8</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -4247,13 +4244,13 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
       <c r="S37" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U37" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="3"/>
@@ -4286,7 +4283,7 @@
       <c r="AC37" s="10"/>
       <c r="AE37" s="8"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -4297,7 +4294,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>26</v>
@@ -4312,7 +4309,7 @@
         <v>26</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -4326,13 +4323,13 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="3"/>
@@ -4365,7 +4362,7 @@
       <c r="AC38" s="10"/>
       <c r="AE38" s="8"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -4376,7 +4373,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>26</v>
@@ -4391,7 +4388,7 @@
         <v>34</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
@@ -4405,13 +4402,13 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U39" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="3"/>
@@ -4444,7 +4441,7 @@
       <c r="AC39" s="10"/>
       <c r="AE39" s="8"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4455,10 +4452,10 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
         <v>98</v>
-      </c>
-      <c r="E40" t="s">
-        <v>99</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -4470,19 +4467,19 @@
         <v>9</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M40" t="s">
         <v>21</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="3"/>
@@ -4515,7 +4512,7 @@
       <c r="AC40" s="10"/>
       <c r="AE40" s="8"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4526,10 +4523,10 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -4541,19 +4538,19 @@
         <v>21</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M41" t="s">
         <v>21</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" si="3"/>
@@ -4586,7 +4583,7 @@
       <c r="AC41" s="10"/>
       <c r="AE41" s="8"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4597,10 +4594,10 @@
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -4612,19 +4609,19 @@
         <v>34</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M42" t="s">
         <v>21</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" si="3"/>
@@ -4657,7 +4654,7 @@
       <c r="AC42" s="10"/>
       <c r="AE42" s="8"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4668,10 +4665,10 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -4683,19 +4680,19 @@
         <v>27</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M43" t="s">
         <v>21</v>
       </c>
       <c r="S43" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" si="3"/>
@@ -4728,7 +4725,7 @@
       <c r="AC43" s="10"/>
       <c r="AE43" s="8"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4739,10 +4736,10 @@
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -4754,19 +4751,19 @@
         <v>34</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M44" t="s">
         <v>21</v>
       </c>
       <c r="S44" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" si="3"/>
@@ -4799,7 +4796,7 @@
       <c r="AC44" s="10"/>
       <c r="AE44" s="8"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4810,10 +4807,10 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -4825,19 +4822,19 @@
         <v>28</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M45" t="s">
         <v>21</v>
       </c>
       <c r="S45" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V45" t="str">
         <f t="shared" si="3"/>
@@ -4870,7 +4867,7 @@
       <c r="AC45" s="10"/>
       <c r="AE45" s="8"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4881,10 +4878,10 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
@@ -4896,19 +4893,19 @@
         <v>28</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M46" t="s">
         <v>21</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V46" t="str">
         <f t="shared" si="3"/>
@@ -4941,7 +4938,7 @@
       <c r="AC46" s="10"/>
       <c r="AE46" s="8"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4952,10 +4949,10 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -4967,19 +4964,19 @@
         <v>21</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M47" t="s">
         <v>21</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V47" t="str">
         <f t="shared" si="3"/>
@@ -5012,7 +5009,7 @@
       <c r="AC47" s="10"/>
       <c r="AE47" s="8"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5023,10 +5020,10 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
@@ -5038,19 +5035,19 @@
         <v>33</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s">
         <v>21</v>
       </c>
       <c r="S48" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" si="3"/>
@@ -5083,7 +5080,7 @@
       <c r="AC48" s="10"/>
       <c r="AE48" s="8"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5094,10 +5091,10 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -5109,19 +5106,19 @@
         <v>27</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M49" t="s">
         <v>21</v>
       </c>
       <c r="S49" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" si="3"/>
@@ -5154,7 +5151,7 @@
       <c r="AC49" s="10"/>
       <c r="AE49" s="8"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5165,10 +5162,10 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -5180,19 +5177,19 @@
         <v>12</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M50" t="s">
         <v>21</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" si="3"/>
@@ -5225,7 +5222,7 @@
       <c r="AC50" s="10"/>
       <c r="AE50" s="8"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5236,10 +5233,10 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -5251,19 +5248,19 @@
         <v>17</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M51" t="s">
         <v>21</v>
       </c>
       <c r="S51" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" si="3"/>
@@ -5296,7 +5293,7 @@
       <c r="AC51" s="10"/>
       <c r="AE51" s="8"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5307,10 +5304,10 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -5322,19 +5319,19 @@
         <v>13</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M52" t="s">
         <v>21</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" si="3"/>
@@ -5367,7 +5364,7 @@
       <c r="AC52" s="10"/>
       <c r="AE52" s="8"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5378,10 +5375,10 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -5393,19 +5390,19 @@
         <v>12</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M53" t="s">
         <v>21</v>
       </c>
       <c r="S53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="3"/>
@@ -5438,7 +5435,7 @@
       <c r="AC53" s="10"/>
       <c r="AE53" s="8"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -5449,10 +5446,10 @@
         <v>18</v>
       </c>
       <c r="D54" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>22</v>
@@ -5464,7 +5461,7 @@
         <v>47</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -5478,13 +5475,13 @@
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
       <c r="S54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U54" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V54" t="str">
         <f t="shared" si="3"/>
@@ -5517,7 +5514,7 @@
       <c r="AC54" s="10"/>
       <c r="AE54" s="8"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -5528,10 +5525,10 @@
         <v>18</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>22</v>
@@ -5543,7 +5540,7 @@
         <v>44</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
@@ -5557,13 +5554,13 @@
       <c r="Q55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" si="3"/>
@@ -5596,7 +5593,7 @@
       <c r="AC55" s="10"/>
       <c r="AE55" s="8"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -5607,10 +5604,10 @@
         <v>18</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>22</v>
@@ -5622,7 +5619,7 @@
         <v>50</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
@@ -5636,13 +5633,13 @@
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
       <c r="S56" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U56" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" si="3"/>
@@ -5675,7 +5672,7 @@
       <c r="AC56" s="10"/>
       <c r="AE56" s="8"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -5686,10 +5683,10 @@
         <v>18</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>22</v>
@@ -5701,7 +5698,7 @@
         <v>50</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
@@ -5715,13 +5712,13 @@
       <c r="Q57" s="13"/>
       <c r="R57" s="13"/>
       <c r="S57" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U57" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" si="3"/>
@@ -5754,7 +5751,7 @@
       <c r="AC57" s="10"/>
       <c r="AE57" s="8"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -5765,10 +5762,10 @@
         <v>18</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>22</v>
@@ -5780,7 +5777,7 @@
         <v>50</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -5794,13 +5791,13 @@
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
       <c r="S58" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" si="3"/>
@@ -5833,7 +5830,7 @@
       <c r="AC58" s="10"/>
       <c r="AE58" s="8"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -5844,10 +5841,10 @@
         <v>18</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>22</v>
@@ -5859,7 +5856,7 @@
         <v>50</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -5873,13 +5870,13 @@
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
       <c r="S59" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U59" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" si="3"/>
@@ -5912,7 +5909,7 @@
       <c r="AC59" s="10"/>
       <c r="AE59" s="8"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5923,7 +5920,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
         <v>27</v>
@@ -5938,19 +5935,19 @@
         <v>31</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M60" t="s">
         <v>21</v>
       </c>
       <c r="S60" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T60" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V60" t="str">
         <f t="shared" si="3"/>
@@ -5983,7 +5980,7 @@
       <c r="AC60" s="10"/>
       <c r="AE60" s="8"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5994,7 +5991,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
         <v>27</v>
@@ -6009,19 +6006,19 @@
         <v>32</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M61" t="s">
         <v>21</v>
       </c>
       <c r="S61" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V61" t="str">
         <f t="shared" si="3"/>
@@ -6054,7 +6051,7 @@
       <c r="AC61" s="10"/>
       <c r="AE61" s="8"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6065,7 +6062,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
         <v>27</v>
@@ -6080,19 +6077,19 @@
         <v>35</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M62" t="s">
         <v>21</v>
       </c>
       <c r="S62" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V62" t="str">
         <f t="shared" si="3"/>
@@ -6125,7 +6122,7 @@
       <c r="AC62" s="10"/>
       <c r="AE62" s="8"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6136,7 +6133,7 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E63" t="s">
         <v>27</v>
@@ -6151,19 +6148,19 @@
         <v>26</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M63" t="s">
         <v>21</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V63" t="str">
         <f t="shared" si="3"/>
@@ -6196,7 +6193,7 @@
       <c r="AC63" s="10"/>
       <c r="AE63" s="8"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6207,7 +6204,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" t="s">
         <v>27</v>
@@ -6222,19 +6219,19 @@
         <v>34</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M64" t="s">
         <v>21</v>
       </c>
       <c r="S64" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" si="3"/>
@@ -6267,7 +6264,7 @@
       <c r="AC64" s="10"/>
       <c r="AE64" s="8"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6278,7 +6275,7 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" t="s">
         <v>27</v>
@@ -6293,19 +6290,19 @@
         <v>41</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M65" t="s">
         <v>21</v>
       </c>
       <c r="S65" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V65" t="str">
         <f t="shared" si="3"/>
@@ -6338,7 +6335,7 @@
       <c r="AC65" s="10"/>
       <c r="AE65" s="8"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6349,10 +6346,10 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -6364,16 +6361,16 @@
         <v>9</v>
       </c>
       <c r="I66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S66" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T66" t="s">
+        <v>295</v>
+      </c>
+      <c r="U66" t="s">
         <v>296</v>
-      </c>
-      <c r="U66" t="s">
-        <v>297</v>
       </c>
       <c r="V66" t="str">
         <f t="shared" ref="V66:V69" si="9">MID(U66,45,4)</f>
@@ -6404,7 +6401,7 @@
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/Cr1yxFxmtbh9AUbrpyQXE6' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6415,10 +6412,10 @@
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -6430,16 +6427,16 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S67" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V67" t="str">
         <f t="shared" si="9"/>
@@ -6470,7 +6467,7 @@
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/FPRS7x1liP3FfsFWvRgqfm' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31">
       <c r="A68">
         <v>68</v>
       </c>
@@ -6481,10 +6478,10 @@
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -6496,16 +6493,16 @@
         <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S68" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V68" t="str">
         <f t="shared" si="9"/>
@@ -6536,7 +6533,7 @@
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/Dt16YoLNiQSJ7ZWVznbNDr' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31">
       <c r="A69">
         <v>70</v>
       </c>
@@ -6547,13 +6544,13 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" t="s">
         <v>293</v>
-      </c>
-      <c r="E69" t="s">
-        <v>114</v>
-      </c>
-      <c r="F69" t="s">
-        <v>294</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
@@ -6562,16 +6559,16 @@
         <v>7</v>
       </c>
       <c r="I69" t="s">
+        <v>294</v>
+      </c>
+      <c r="S69" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="T69" t="s">
         <v>295</v>
       </c>
-      <c r="S69" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="T69" t="s">
-        <v>296</v>
-      </c>
       <c r="U69" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" si="9"/>
@@ -6602,7 +6599,7 @@
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/EaPviu0x5zLK02gHWUMznj' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31">
       <c r="A70">
         <v>77</v>
       </c>
@@ -6613,13 +6610,13 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E70" t="s">
         <v>27</v>
       </c>
       <c r="F70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G70" t="s">
         <v>23</v>
@@ -6628,16 +6625,16 @@
         <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U70" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" ref="V70" si="15">MID(U70,45,4)</f>
@@ -6750,7 +6747,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -6763,7 +6760,7 @@
     <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6771,10 +6768,10 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" t="s">
         <v>226</v>
-      </c>
-      <c r="D1" t="s">
-        <v>227</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -6789,10 +6786,10 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6803,7 +6800,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -6818,13 +6815,13 @@
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6835,7 +6832,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -6850,13 +6847,13 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6867,7 +6864,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -6882,13 +6879,13 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6899,7 +6896,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -6914,13 +6911,13 @@
         <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>6</v>
       </c>
@@ -6931,7 +6928,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -6946,13 +6943,13 @@
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6963,7 +6960,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -6978,13 +6975,13 @@
         <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>8</v>
       </c>
@@ -6995,7 +6992,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -7010,13 +7007,13 @@
         <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>9</v>
       </c>
@@ -7027,7 +7024,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -7042,13 +7039,13 @@
         <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>10</v>
       </c>
@@ -7059,7 +7056,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -7074,13 +7071,13 @@
         <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>11</v>
       </c>
@@ -7091,7 +7088,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -7106,13 +7103,13 @@
         <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>12</v>
       </c>
@@ -7123,7 +7120,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -7138,13 +7135,13 @@
         <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>13</v>
       </c>
@@ -7155,7 +7152,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -7170,13 +7167,13 @@
         <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>14</v>
       </c>
@@ -7187,7 +7184,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
@@ -7202,13 +7199,13 @@
         <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>15</v>
       </c>
@@ -7219,7 +7216,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
@@ -7234,13 +7231,13 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7251,7 +7248,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -7266,13 +7263,13 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>17</v>
       </c>
@@ -7283,7 +7280,7 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
@@ -7298,13 +7295,13 @@
         <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7315,7 +7312,7 @@
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -7330,13 +7327,13 @@
         <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>19</v>
       </c>
@@ -7347,7 +7344,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -7362,13 +7359,13 @@
         <v>28</v>
       </c>
       <c r="I19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>20</v>
       </c>
@@ -7379,7 +7376,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
@@ -7394,13 +7391,13 @@
         <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>21</v>
       </c>
@@ -7411,7 +7408,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -7426,13 +7423,13 @@
         <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>22</v>
       </c>
@@ -7443,7 +7440,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -7458,13 +7455,13 @@
         <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>23</v>
       </c>
@@ -7475,7 +7472,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
@@ -7490,13 +7487,13 @@
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>24</v>
       </c>
@@ -7507,7 +7504,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>24</v>
@@ -7522,13 +7519,13 @@
         <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>25</v>
       </c>
@@ -7539,7 +7536,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
@@ -7554,13 +7551,13 @@
         <v>31</v>
       </c>
       <c r="I25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>26</v>
       </c>
@@ -7571,7 +7568,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -7586,13 +7583,13 @@
         <v>30</v>
       </c>
       <c r="I26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>27</v>
       </c>
@@ -7603,7 +7600,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
@@ -7618,13 +7615,13 @@
         <v>29</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>28</v>
       </c>
@@ -7635,7 +7632,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
@@ -7650,13 +7647,13 @@
         <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>29</v>
       </c>
@@ -7667,7 +7664,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -7682,13 +7679,13 @@
         <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>30</v>
       </c>
@@ -7699,7 +7696,7 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
@@ -7714,13 +7711,13 @@
         <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>31</v>
       </c>
@@ -7731,7 +7728,7 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -7746,13 +7743,13 @@
         <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>32</v>
       </c>
@@ -7763,7 +7760,7 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
@@ -7778,13 +7775,13 @@
         <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>33</v>
       </c>
@@ -7795,7 +7792,7 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -7810,13 +7807,13 @@
         <v>29</v>
       </c>
       <c r="I33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>34</v>
       </c>
@@ -7827,7 +7824,7 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
@@ -7842,13 +7839,13 @@
         <v>27</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>35</v>
       </c>
@@ -7859,7 +7856,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
@@ -7874,13 +7871,13 @@
         <v>36</v>
       </c>
       <c r="I35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>36</v>
       </c>
@@ -7891,7 +7888,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
@@ -7906,13 +7903,13 @@
         <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>37</v>
       </c>
@@ -7923,7 +7920,7 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
@@ -7938,13 +7935,13 @@
         <v>28</v>
       </c>
       <c r="I37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>38</v>
       </c>
@@ -7955,7 +7952,7 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
@@ -7970,13 +7967,13 @@
         <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>39</v>
       </c>
@@ -7987,7 +7984,7 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
@@ -8002,13 +7999,13 @@
         <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>40</v>
       </c>
@@ -8019,10 +8016,10 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
         <v>98</v>
-      </c>
-      <c r="E40" t="s">
-        <v>99</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -8034,13 +8031,13 @@
         <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>41</v>
       </c>
@@ -8051,10 +8048,10 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -8066,13 +8063,13 @@
         <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>42</v>
       </c>
@@ -8083,10 +8080,10 @@
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -8098,13 +8095,13 @@
         <v>33</v>
       </c>
       <c r="I42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>43</v>
       </c>
@@ -8115,10 +8112,10 @@
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -8130,13 +8127,13 @@
         <v>28</v>
       </c>
       <c r="I43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>44</v>
       </c>
@@ -8147,10 +8144,10 @@
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -8162,13 +8159,13 @@
         <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>45</v>
       </c>
@@ -8179,10 +8176,10 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -8194,13 +8191,13 @@
         <v>28</v>
       </c>
       <c r="I45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>46</v>
       </c>
@@ -8211,10 +8208,10 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
@@ -8226,13 +8223,13 @@
         <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>47</v>
       </c>
@@ -8243,10 +8240,10 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -8258,13 +8255,13 @@
         <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>48</v>
       </c>
@@ -8275,10 +8272,10 @@
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
@@ -8290,13 +8287,13 @@
         <v>33</v>
       </c>
       <c r="I48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>49</v>
       </c>
@@ -8307,10 +8304,10 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -8322,13 +8319,13 @@
         <v>27</v>
       </c>
       <c r="I49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>50</v>
       </c>
@@ -8339,10 +8336,10 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -8354,13 +8351,13 @@
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>51</v>
       </c>
@@ -8371,10 +8368,10 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -8386,13 +8383,13 @@
         <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>52</v>
       </c>
@@ -8403,10 +8400,10 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -8418,13 +8415,13 @@
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>53</v>
       </c>
@@ -8435,10 +8432,10 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -8450,13 +8447,13 @@
         <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>54</v>
       </c>
@@ -8467,10 +8464,10 @@
         <v>18</v>
       </c>
       <c r="D54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" t="s">
         <v>113</v>
-      </c>
-      <c r="E54" t="s">
-        <v>114</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -8482,13 +8479,13 @@
         <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>55</v>
       </c>
@@ -8499,10 +8496,10 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -8514,13 +8511,13 @@
         <v>45</v>
       </c>
       <c r="I55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>56</v>
       </c>
@@ -8531,10 +8528,10 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8546,13 +8543,13 @@
         <v>50</v>
       </c>
       <c r="I56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>57</v>
       </c>
@@ -8563,10 +8560,10 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8578,13 +8575,13 @@
         <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>58</v>
       </c>
@@ -8595,10 +8592,10 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8610,13 +8607,13 @@
         <v>50</v>
       </c>
       <c r="I58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>59</v>
       </c>
@@ -8627,10 +8624,10 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8642,13 +8639,13 @@
         <v>50</v>
       </c>
       <c r="I59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>60</v>
       </c>
@@ -8659,7 +8656,7 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
         <v>27</v>
@@ -8674,13 +8671,13 @@
         <v>31</v>
       </c>
       <c r="I60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>61</v>
       </c>
@@ -8691,7 +8688,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
         <v>27</v>
@@ -8706,13 +8703,13 @@
         <v>32</v>
       </c>
       <c r="I61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M61" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>62</v>
       </c>
@@ -8723,7 +8720,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
         <v>27</v>
@@ -8738,13 +8735,13 @@
         <v>36</v>
       </c>
       <c r="I62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>63</v>
       </c>
@@ -8755,7 +8752,7 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E63" t="s">
         <v>27</v>
@@ -8770,13 +8767,13 @@
         <v>27</v>
       </c>
       <c r="I63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>64</v>
       </c>
@@ -8787,7 +8784,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" t="s">
         <v>27</v>
@@ -8802,13 +8799,13 @@
         <v>35</v>
       </c>
       <c r="I64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>65</v>
       </c>
@@ -8819,7 +8816,7 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" t="s">
         <v>27</v>
@@ -8834,7 +8831,7 @@
         <v>40</v>
       </c>
       <c r="I65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -8850,175 +8847,175 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:8">
       <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
       </c>
       <c r="H1" t="str">
         <f>CONCATENATE(C1,",",D1,",",E1,",",F1,",",G1)</f>
         <v>username,firstname,lastname,email,auth</v>
       </c>
     </row>
-    <row r="2" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" ht="15.75">
       <c r="C2" s="11">
         <v>15419141</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H8" si="0">CONCATENATE(C2,",",D2,",",E2,",",F2,",",G2)</f>
         <v>15419141,VEGA CANALES,FELIPE,fvega@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8">
       <c r="C3" s="12">
         <v>40662095</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
         <v>40662095,TORRES JIMÉNEZ,EDERSON IGNACIO,e_torres@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8">
       <c r="C4" s="12">
         <v>46117029</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>46117029,ANTONIO AQUIJE,RENZO ROLAND,rantonio@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8">
       <c r="C5" s="12">
         <v>45976158</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>45976158,TOLEDO GUERRA,JUAN CARLOS ALFREDO,jtoledo@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8">
       <c r="C6" s="12">
         <v>40332859</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>40332859,ÑAÑEZ JAVIER,NANCY,nnanez@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8">
       <c r="C7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>06532908,VALDERRAMA ROMERO,ANTONIO SALOMON,avalderrama@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8">
       <c r="C8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -9039,25 +9036,25 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
         <v>157</v>
       </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -9066,16 +9063,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5">
         <f>COUNTIFS(Sheet!E:E,items!A5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -9084,7 +9081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -9093,25 +9090,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8">
         <f>COUNTIFS(Sheet!E:E,items!A8)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <f>COUNTIFS(Sheet!E:E,items!A9)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -9120,16 +9117,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11">
         <f>COUNTIFS(Sheet!E:E,items!A11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -9138,16 +9135,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13">
         <f>COUNTIFS(Sheet!E:E,items!A13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14">
         <f>SUM(B4:B13)</f>
         <v>69</v>

--- a/EXCEL_TRABAJADO/2023-1.xlsx
+++ b/EXCEL_TRABAJADO/2023-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED602AF-C189-4881-96C2-9EB6564391C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76B88DD-D144-4192-9EFA-3906B83BFA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="308">
   <si>
     <t>N°</t>
   </si>
@@ -944,13 +944,16 @@
   </si>
   <si>
     <t>https://chat.whatsapp.com/HCW8kplTG7DHTjzNrQJlKW</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1434,12 +1437,12 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AE70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA67" sqref="AA67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
@@ -1465,7 +1468,7 @@
     <col min="31" max="31" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="29.25" customHeight="1">
+    <row r="1" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>161</v>
       </c>
       <c r="T2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U2" s="14" t="s">
         <v>254</v>
@@ -1614,7 +1617,7 @@
       <c r="AC2" s="10"/>
       <c r="AE2" s="8"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>162</v>
       </c>
       <c r="T3" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>255</v>
@@ -1683,7 +1686,7 @@
         <v>AG_I-T-B INTRODUCCIÓN A LA AGRONOMÍA - 3178</v>
       </c>
       <c r="AA3" t="str">
-        <f t="shared" ref="AA3:AA65" si="8">TRIM(MID(Z3,1,25))</f>
+        <f t="shared" ref="AA3:AA66" si="8">TRIM(MID(Z3,1,25))</f>
         <v>AG_I-T-B INTRODUCCIÓN A L</v>
       </c>
       <c r="AB3" t="str">
@@ -1693,7 +1696,7 @@
       <c r="AC3" s="10"/>
       <c r="AE3" s="8"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>163</v>
       </c>
       <c r="T4" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U4" s="13" t="s">
         <v>256</v>
@@ -1772,7 +1775,7 @@
       <c r="AC4" s="10"/>
       <c r="AE4" s="8"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>164</v>
       </c>
       <c r="T5" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U5" s="13" t="s">
         <v>257</v>
@@ -1851,7 +1854,7 @@
       <c r="AC5" s="10"/>
       <c r="AE5" s="8"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>165</v>
       </c>
       <c r="T6" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U6" s="13" t="s">
         <v>258</v>
@@ -1930,7 +1933,7 @@
       <c r="AC6" s="10"/>
       <c r="AE6" s="8"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>166</v>
       </c>
       <c r="T7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U7" s="14" t="s">
         <v>259</v>
@@ -2009,7 +2012,7 @@
       <c r="AC7" s="10"/>
       <c r="AE7" s="8"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>167</v>
       </c>
       <c r="T8" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U8" s="13" t="s">
         <v>260</v>
@@ -2088,7 +2091,7 @@
       <c r="AC8" s="10"/>
       <c r="AE8" s="8"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>168</v>
       </c>
       <c r="T9" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U9" s="13" t="s">
         <v>261</v>
@@ -2167,7 +2170,7 @@
       <c r="AC9" s="10"/>
       <c r="AE9" s="8"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>169</v>
       </c>
       <c r="T10" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U10" s="13" t="s">
         <v>262</v>
@@ -2246,7 +2249,7 @@
       <c r="AC10" s="10"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>170</v>
       </c>
       <c r="T11" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U11" s="14" t="s">
         <v>263</v>
@@ -2325,7 +2328,7 @@
       <c r="AC11" s="10"/>
       <c r="AE11" s="8"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>171</v>
       </c>
       <c r="T12" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U12" s="13" t="s">
         <v>264</v>
@@ -2404,7 +2407,7 @@
       <c r="AC12" s="10"/>
       <c r="AE12" s="8"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>172</v>
       </c>
       <c r="T13" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U13" s="13" t="s">
         <v>265</v>
@@ -2483,7 +2486,7 @@
       <c r="AC13" s="10"/>
       <c r="AE13" s="8"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>173</v>
       </c>
       <c r="T14" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U14" t="s">
         <v>266</v>
@@ -2554,7 +2557,7 @@
       <c r="AC14" s="10"/>
       <c r="AE14" s="8"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>174</v>
       </c>
       <c r="T15" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U15" t="s">
         <v>267</v>
@@ -2625,7 +2628,7 @@
       <c r="AC15" s="10"/>
       <c r="AE15" s="8"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>175</v>
       </c>
       <c r="T16" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U16" t="s">
         <v>268</v>
@@ -2696,7 +2699,7 @@
       <c r="AC16" s="10"/>
       <c r="AE16" s="8"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>176</v>
       </c>
       <c r="T17" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U17" t="s">
         <v>269</v>
@@ -2767,7 +2770,7 @@
       <c r="AC17" s="10"/>
       <c r="AE17" s="8"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>177</v>
       </c>
       <c r="T18" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U18" t="s">
         <v>270</v>
@@ -2838,7 +2841,7 @@
       <c r="AC18" s="10"/>
       <c r="AE18" s="8"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>178</v>
       </c>
       <c r="T19" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U19" t="s">
         <v>271</v>
@@ -2909,7 +2912,7 @@
       <c r="AC19" s="10"/>
       <c r="AE19" s="8"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>179</v>
       </c>
       <c r="T20" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U20" t="s">
         <v>272</v>
@@ -2980,7 +2983,7 @@
       <c r="AC20" s="10"/>
       <c r="AE20" s="8"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>180</v>
       </c>
       <c r="T21" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U21" t="s">
         <v>273</v>
@@ -3051,7 +3054,7 @@
       <c r="AC21" s="10"/>
       <c r="AE21" s="8"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>181</v>
       </c>
       <c r="T22" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U22" t="s">
         <v>274</v>
@@ -3122,7 +3125,7 @@
       <c r="AC22" s="10"/>
       <c r="AE22" s="8"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3157,7 +3160,7 @@
         <v>182</v>
       </c>
       <c r="T23" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U23" t="s">
         <v>275</v>
@@ -3193,7 +3196,7 @@
       <c r="AC23" s="10"/>
       <c r="AE23" s="8"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>183</v>
       </c>
       <c r="T24" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U24" s="17" t="s">
         <v>276</v>
@@ -3264,7 +3267,7 @@
       <c r="AC24" s="16"/>
       <c r="AE24" s="17"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3299,7 +3302,7 @@
         <v>184</v>
       </c>
       <c r="T25" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U25" t="s">
         <v>277</v>
@@ -3335,7 +3338,7 @@
       <c r="AC25" s="10"/>
       <c r="AE25" s="8"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>185</v>
       </c>
       <c r="T26" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U26" s="13" t="s">
         <v>145</v>
@@ -3414,7 +3417,7 @@
       <c r="AC26" s="10"/>
       <c r="AE26" s="8"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>186</v>
       </c>
       <c r="T27" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U27" s="13" t="s">
         <v>148</v>
@@ -3493,7 +3496,7 @@
       <c r="AC27" s="10"/>
       <c r="AE27" s="8"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>187</v>
       </c>
       <c r="T28" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U28" s="13" t="s">
         <v>138</v>
@@ -3572,7 +3575,7 @@
       <c r="AC28" s="10"/>
       <c r="AE28" s="8"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>188</v>
       </c>
       <c r="T29" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U29" s="13" t="s">
         <v>151</v>
@@ -3651,7 +3654,7 @@
       <c r="AC29" s="10"/>
       <c r="AE29" s="8"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>189</v>
       </c>
       <c r="T30" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U30" s="13" t="s">
         <v>140</v>
@@ -3730,7 +3733,7 @@
       <c r="AC30" s="10"/>
       <c r="AE30" s="8"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -3773,7 +3776,7 @@
         <v>190</v>
       </c>
       <c r="T31" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U31" s="13" t="s">
         <v>152</v>
@@ -3809,7 +3812,7 @@
       <c r="AC31" s="10"/>
       <c r="AE31" s="8"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>191</v>
       </c>
       <c r="T32" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U32" s="13" t="s">
         <v>147</v>
@@ -3888,7 +3891,7 @@
       <c r="AC32" s="10"/>
       <c r="AE32" s="8"/>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -3931,7 +3934,7 @@
         <v>192</v>
       </c>
       <c r="T33" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U33" s="13" t="s">
         <v>154</v>
@@ -3967,7 +3970,7 @@
       <c r="AC33" s="10"/>
       <c r="AE33" s="8"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>193</v>
       </c>
       <c r="T34" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U34" s="13" t="s">
         <v>142</v>
@@ -4046,7 +4049,7 @@
       <c r="AC34" s="10"/>
       <c r="AE34" s="8"/>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>194</v>
       </c>
       <c r="T35" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U35" s="13" t="s">
         <v>149</v>
@@ -4125,7 +4128,7 @@
       <c r="AC35" s="10"/>
       <c r="AE35" s="8"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>195</v>
       </c>
       <c r="T36" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U36" s="13" t="s">
         <v>144</v>
@@ -4204,7 +4207,7 @@
       <c r="AC36" s="10"/>
       <c r="AE36" s="8"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>196</v>
       </c>
       <c r="T37" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U37" s="13" t="s">
         <v>150</v>
@@ -4283,7 +4286,7 @@
       <c r="AC37" s="10"/>
       <c r="AE37" s="8"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>197</v>
       </c>
       <c r="T38" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U38" s="13" t="s">
         <v>146</v>
@@ -4362,7 +4365,7 @@
       <c r="AC38" s="10"/>
       <c r="AE38" s="8"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>198</v>
       </c>
       <c r="T39" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U39" s="13" t="s">
         <v>153</v>
@@ -4441,7 +4444,7 @@
       <c r="AC39" s="10"/>
       <c r="AE39" s="8"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4476,7 +4479,7 @@
         <v>199</v>
       </c>
       <c r="T40" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U40" t="s">
         <v>278</v>
@@ -4512,7 +4515,7 @@
       <c r="AC40" s="10"/>
       <c r="AE40" s="8"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>200</v>
       </c>
       <c r="T41" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U41" t="s">
         <v>279</v>
@@ -4583,7 +4586,7 @@
       <c r="AC41" s="10"/>
       <c r="AE41" s="8"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>201</v>
       </c>
       <c r="T42" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U42" t="s">
         <v>280</v>
@@ -4654,7 +4657,7 @@
       <c r="AC42" s="10"/>
       <c r="AE42" s="8"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>202</v>
       </c>
       <c r="T43" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U43" s="8" t="s">
         <v>281</v>
@@ -4725,7 +4728,7 @@
       <c r="AC43" s="10"/>
       <c r="AE43" s="8"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>203</v>
       </c>
       <c r="T44" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U44" t="s">
         <v>282</v>
@@ -4796,7 +4799,7 @@
       <c r="AC44" s="10"/>
       <c r="AE44" s="8"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4831,7 +4834,7 @@
         <v>204</v>
       </c>
       <c r="T45" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U45" t="s">
         <v>127</v>
@@ -4867,7 +4870,7 @@
       <c r="AC45" s="10"/>
       <c r="AE45" s="8"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4902,7 +4905,7 @@
         <v>205</v>
       </c>
       <c r="T46" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U46" t="s">
         <v>283</v>
@@ -4938,7 +4941,7 @@
       <c r="AC46" s="10"/>
       <c r="AE46" s="8"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>206</v>
       </c>
       <c r="T47" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U47" s="8" t="s">
         <v>129</v>
@@ -5009,7 +5012,7 @@
       <c r="AC47" s="10"/>
       <c r="AE47" s="8"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>207</v>
       </c>
       <c r="T48" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U48" t="s">
         <v>284</v>
@@ -5080,7 +5083,7 @@
       <c r="AC48" s="10"/>
       <c r="AE48" s="8"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5115,7 +5118,7 @@
         <v>208</v>
       </c>
       <c r="T49" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U49" t="s">
         <v>125</v>
@@ -5151,7 +5154,7 @@
       <c r="AC49" s="10"/>
       <c r="AE49" s="8"/>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>209</v>
       </c>
       <c r="T50" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U50" t="s">
         <v>285</v>
@@ -5222,7 +5225,7 @@
       <c r="AC50" s="10"/>
       <c r="AE50" s="8"/>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5257,7 +5260,7 @@
         <v>210</v>
       </c>
       <c r="T51" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U51" t="s">
         <v>286</v>
@@ -5293,7 +5296,7 @@
       <c r="AC51" s="10"/>
       <c r="AE51" s="8"/>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5328,7 +5331,7 @@
         <v>211</v>
       </c>
       <c r="T52" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U52" t="s">
         <v>287</v>
@@ -5364,7 +5367,7 @@
       <c r="AC52" s="10"/>
       <c r="AE52" s="8"/>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>212</v>
       </c>
       <c r="T53" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U53" t="s">
         <v>133</v>
@@ -5435,7 +5438,7 @@
       <c r="AC53" s="10"/>
       <c r="AE53" s="8"/>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -5478,7 +5481,7 @@
         <v>213</v>
       </c>
       <c r="T54" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U54" s="13" t="s">
         <v>131</v>
@@ -5514,7 +5517,7 @@
       <c r="AC54" s="10"/>
       <c r="AE54" s="8"/>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -5557,7 +5560,7 @@
         <v>214</v>
       </c>
       <c r="T55" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U55" s="13" t="s">
         <v>128</v>
@@ -5593,7 +5596,7 @@
       <c r="AC55" s="10"/>
       <c r="AE55" s="8"/>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>215</v>
       </c>
       <c r="T56" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U56" s="13" t="s">
         <v>130</v>
@@ -5672,7 +5675,7 @@
       <c r="AC56" s="10"/>
       <c r="AE56" s="8"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>216</v>
       </c>
       <c r="T57" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U57" s="13" t="s">
         <v>126</v>
@@ -5751,7 +5754,7 @@
       <c r="AC57" s="10"/>
       <c r="AE57" s="8"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>217</v>
       </c>
       <c r="T58" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U58" s="13" t="s">
         <v>134</v>
@@ -5830,7 +5833,7 @@
       <c r="AC58" s="10"/>
       <c r="AE58" s="8"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>218</v>
       </c>
       <c r="T59" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U59" s="13" t="s">
         <v>135</v>
@@ -5909,7 +5912,7 @@
       <c r="AC59" s="10"/>
       <c r="AE59" s="8"/>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>219</v>
       </c>
       <c r="T60" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U60" t="s">
         <v>136</v>
@@ -5980,7 +5983,7 @@
       <c r="AC60" s="10"/>
       <c r="AE60" s="8"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6015,7 +6018,7 @@
         <v>220</v>
       </c>
       <c r="T61" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U61" t="s">
         <v>132</v>
@@ -6051,7 +6054,7 @@
       <c r="AC61" s="10"/>
       <c r="AE61" s="8"/>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>221</v>
       </c>
       <c r="T62" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U62" t="s">
         <v>141</v>
@@ -6122,7 +6125,7 @@
       <c r="AC62" s="10"/>
       <c r="AE62" s="8"/>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>222</v>
       </c>
       <c r="T63" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U63" t="s">
         <v>143</v>
@@ -6193,7 +6196,7 @@
       <c r="AC63" s="10"/>
       <c r="AE63" s="8"/>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>223</v>
       </c>
       <c r="T64" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U64" t="s">
         <v>137</v>
@@ -6264,7 +6267,7 @@
       <c r="AC64" s="10"/>
       <c r="AE64" s="8"/>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>224</v>
       </c>
       <c r="T65" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U65" t="s">
         <v>139</v>
@@ -6335,7 +6338,7 @@
       <c r="AC65" s="10"/>
       <c r="AE65" s="8"/>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6393,7 +6396,7 @@
         <v>AG_VI-M-A PROPAGACIÓN DE PLANTAS - 3253</v>
       </c>
       <c r="AA66" t="str">
-        <f t="shared" ref="AA66:AA69" si="14">TRIM(MID(Z66,1,25))</f>
+        <f t="shared" si="8"/>
         <v>AG_VI-M-A PROPAGACIÓN DE</v>
       </c>
       <c r="AB66" t="str">
@@ -6401,7 +6404,7 @@
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/Cr1yxFxmtbh9AUbrpyQXE6' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>AG_VI-M-A ENTOMOLOGÍA GENERAL - 3254</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AA67:AA70" si="14">TRIM(MID(Z67,1,25))</f>
         <v>AG_VI-M-A ENTOMOLOGÍA GEN</v>
       </c>
       <c r="AB67" t="str">
@@ -6467,7 +6470,7 @@
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/FPRS7x1liP3FfsFWvRgqfm' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/Dt16YoLNiQSJ7ZWVznbNDr' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>70</v>
       </c>
@@ -6599,7 +6602,7 @@
         <v>&lt;p&gt;&lt;a href='https://chat.whatsapp.com/EaPviu0x5zLK02gHWUMznj' target='_blank'&gt;&lt;img src='https://firebasestorage.googleapis.com/v0/b/backup-a2b5c.appspot.com/o/linkwhatsapp.png?alt=media&amp;token=531801e8-d490-42f7-b704-64c0f96eb8c5' alt='' width='291' height='42' role='presentation' class='img-responsive atto_image_button_text-bottom'&gt;&lt;/a&gt;&lt;br&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>77</v>
       </c>
@@ -6657,7 +6660,7 @@
         <v>AG_VII-TARDE-B FITOPATOLOGÍA GENERAL - 3259</v>
       </c>
       <c r="AA70" t="str">
-        <f t="shared" ref="AA70" si="20">TRIM(MID(Z70,1,25))</f>
+        <f t="shared" si="14"/>
         <v>AG_VII-TARDE-B FITOPATOLO</v>
       </c>
       <c r="AB70" t="str">
@@ -6747,7 +6750,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -6760,7 +6763,7 @@
     <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6789,7 +6792,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6853,7 +6856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6885,7 +6888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -6949,7 +6952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6981,7 +6984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -7013,7 +7016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -7045,7 +7048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -7077,7 +7080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -7109,7 +7112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -7141,7 +7144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -7205,7 +7208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -7237,7 +7240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7269,7 +7272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -7301,7 +7304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7333,7 +7336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -7365,7 +7368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -7397,7 +7400,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -7429,7 +7432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -7461,7 +7464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -7525,7 +7528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -7589,7 +7592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -7653,7 +7656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -7749,7 +7752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -7781,7 +7784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -7813,7 +7816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -7845,7 +7848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -7877,7 +7880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -7909,7 +7912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -7941,7 +7944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -7973,7 +7976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -8005,7 +8008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -8037,7 +8040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -8069,7 +8072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -8165,7 +8168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -8229,7 +8232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -8261,7 +8264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -8293,7 +8296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -8325,7 +8328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -8357,7 +8360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -8389,7 +8392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -8421,7 +8424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -8453,7 +8456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -8485,7 +8488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -8517,7 +8520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -8549,7 +8552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -8581,7 +8584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -8613,7 +8616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -8645,7 +8648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -8677,7 +8680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -8709,7 +8712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -8741,7 +8744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -8773,7 +8776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -8805,7 +8808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -8847,14 +8850,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>53</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>username,firstname,lastname,email,auth</v>
       </c>
     </row>
-    <row r="2" spans="3:8" ht="15.75">
+    <row r="2" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="11">
         <v>15419141</v>
       </c>
@@ -8896,7 +8899,7 @@
         <v>15419141,VEGA CANALES,FELIPE,fvega@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="12">
         <v>40662095</v>
       </c>
@@ -8917,7 +8920,7 @@
         <v>40662095,TORRES JIMÉNEZ,EDERSON IGNACIO,e_torres@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="12">
         <v>46117029</v>
       </c>
@@ -8938,7 +8941,7 @@
         <v>46117029,ANTONIO AQUIJE,RENZO ROLAND,rantonio@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="12">
         <v>45976158</v>
       </c>
@@ -8959,7 +8962,7 @@
         <v>45976158,TOLEDO GUERRA,JUAN CARLOS ALFREDO,jtoledo@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="12">
         <v>40332859</v>
       </c>
@@ -8980,7 +8983,7 @@
         <v>40332859,ÑAÑEZ JAVIER,NANCY,nnanez@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
         <v>36</v>
       </c>
@@ -9001,7 +9004,7 @@
         <v>06532908,VALDERRAMA ROMERO,ANTONIO SALOMON,avalderrama@undc.edu.pe,oauth2</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>38</v>
       </c>
@@ -9036,9 +9039,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -9046,7 +9049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -9054,7 +9057,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -9063,7 +9066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -9072,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -9081,7 +9084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -9090,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -9099,7 +9102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -9108,7 +9111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -9135,7 +9138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -9144,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>SUM(B4:B13)</f>
         <v>69</v>
